--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A94E9-8CD9-754C-B488-5A8823D80D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31DF8D-0AF4-8E43-BB44-7D3600D0DCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,10 +588,10 @@
     <t>Rajithapanchumarthi</t>
   </si>
   <si>
-    <t>shivangmedhekar/CS555WS_Spring2022_Team7</t>
+    <t>Not Started</t>
   </si>
   <si>
-    <t>Not Started</t>
+    <t>shivangmedhekar/CS555WS_Fall2022_Team7</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -613,22 +613,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -763,11 +760,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,22 +798,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,55 +822,55 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,32 +879,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -920,13 +913,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,9 +928,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2193,7 +2187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2281,7 +2277,7 @@
       <c r="E4" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="65" t="s">
         <v>172</v>
       </c>
       <c r="G4" s="50" t="s">
@@ -2301,7 +2297,7 @@
       <c r="E5" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="65" t="s">
         <v>177</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -2324,8 +2320,8 @@
       <c r="F7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>179</v>
+      <c r="G7" s="64" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2337,9 +2333,6 @@
       <c r="G8" s="43"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://github.com/shivangmedhekar/CS555WS_Spring2022_Team7" xr:uid="{AA42D856-A1FF-AA41-A765-980E988CB72D}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -2401,7 +2394,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -2414,11 +2407,11 @@
         <v>165</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>1</v>
       </c>
       <c r="C4" s="48" t="s">
@@ -2431,31 +2424,31 @@
         <v>165</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="40" t="s">
@@ -2465,14 +2458,14 @@
         <v>169</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -2482,41 +2475,41 @@
         <v>169</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>174</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>1</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>174</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6912,7 +6905,7 @@
     <col min="9" max="28" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:28" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6934,26 +6927,26 @@
       <c r="H2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="2:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
@@ -11021,10 +11014,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -11045,7 +11038,7 @@
       <c r="I2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11059,8 +11052,8 @@
       <c r="D3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>180</v>
+      <c r="E3" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F3" s="15">
         <v>50</v>
@@ -11080,8 +11073,8 @@
       <c r="D4" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>180</v>
+      <c r="E4" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F4" s="15">
         <v>100</v>
@@ -11092,17 +11085,17 @@
       <c r="J4" s="39"/>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>180</v>
+      <c r="E5" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F5" s="15">
         <v>50</v>
@@ -11113,7 +11106,7 @@
       <c r="J5" s="39"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="50" t="s">
@@ -11122,8 +11115,8 @@
       <c r="D6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>180</v>
+      <c r="E6" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F6" s="15">
         <v>70</v>
@@ -11134,7 +11127,7 @@
       <c r="J6" s="39"/>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="50" t="s">
@@ -11143,8 +11136,8 @@
       <c r="D7" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>180</v>
+      <c r="E7" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F7" s="15">
         <v>75</v>
@@ -11155,17 +11148,17 @@
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>180</v>
+      <c r="E8" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F8" s="17">
         <v>100</v>
@@ -11176,17 +11169,17 @@
       <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="61" t="s">
-        <v>180</v>
+      <c r="E9" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="F9" s="15">
         <v>100</v>
@@ -11198,3963 +11191,3963 @@
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="17"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="J10" s="39"/>
     </row>
     <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="59"/>
+      <c r="C14" s="58"/>
       <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="59"/>
+      <c r="C15" s="58"/>
       <c r="J15" s="39"/>
     </row>
     <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="59"/>
+      <c r="C16" s="58"/>
       <c r="J16" s="39"/>
     </row>
     <row r="17" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="59"/>
+      <c r="C18" s="58"/>
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="59"/>
+      <c r="C19" s="58"/>
       <c r="J19" s="39"/>
     </row>
     <row r="20" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="59"/>
+      <c r="C20" s="58"/>
       <c r="J20" s="39"/>
     </row>
     <row r="21" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="59"/>
+      <c r="C22" s="58"/>
       <c r="J22" s="39"/>
     </row>
     <row r="23" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="59"/>
+      <c r="C23" s="58"/>
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="59"/>
+      <c r="C24" s="58"/>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="59"/>
+      <c r="C25" s="58"/>
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="59"/>
+      <c r="C26" s="58"/>
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="59"/>
+      <c r="C27" s="58"/>
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="59"/>
+      <c r="C28" s="58"/>
       <c r="J28" s="39"/>
     </row>
     <row r="29" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="59"/>
+      <c r="C29" s="58"/>
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="59"/>
+      <c r="C30" s="58"/>
       <c r="J30" s="39"/>
     </row>
     <row r="31" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="59"/>
+      <c r="C31" s="58"/>
       <c r="J31" s="39"/>
     </row>
     <row r="32" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="59"/>
+      <c r="C32" s="58"/>
       <c r="J32" s="39"/>
     </row>
     <row r="33" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="59"/>
+      <c r="C33" s="58"/>
       <c r="J33" s="39"/>
     </row>
     <row r="34" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="59"/>
+      <c r="C34" s="58"/>
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="59"/>
+      <c r="C35" s="58"/>
       <c r="J35" s="39"/>
     </row>
     <row r="36" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="59"/>
+      <c r="C36" s="58"/>
       <c r="J36" s="39"/>
     </row>
     <row r="37" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="59"/>
+      <c r="C37" s="58"/>
       <c r="J37" s="39"/>
     </row>
     <row r="38" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="59"/>
+      <c r="C38" s="58"/>
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="59"/>
+      <c r="C39" s="58"/>
       <c r="J39" s="39"/>
     </row>
     <row r="40" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="59"/>
+      <c r="C40" s="58"/>
       <c r="J40" s="39"/>
     </row>
     <row r="41" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="59"/>
+      <c r="C41" s="58"/>
       <c r="J41" s="39"/>
     </row>
     <row r="42" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="59"/>
+      <c r="C42" s="58"/>
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="59"/>
+      <c r="C43" s="58"/>
       <c r="J43" s="39"/>
     </row>
     <row r="44" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="59"/>
+      <c r="C44" s="58"/>
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="59"/>
+      <c r="C45" s="58"/>
       <c r="J45" s="39"/>
     </row>
     <row r="46" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="59"/>
+      <c r="C46" s="58"/>
       <c r="J46" s="39"/>
     </row>
     <row r="47" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="59"/>
+      <c r="C47" s="58"/>
       <c r="J47" s="39"/>
     </row>
     <row r="48" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="59"/>
+      <c r="C48" s="58"/>
       <c r="J48" s="39"/>
     </row>
     <row r="49" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="59"/>
+      <c r="C49" s="58"/>
       <c r="J49" s="39"/>
     </row>
     <row r="50" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="59"/>
+      <c r="C50" s="58"/>
       <c r="J50" s="39"/>
     </row>
     <row r="51" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="59"/>
+      <c r="C51" s="58"/>
       <c r="J51" s="39"/>
     </row>
     <row r="52" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="59"/>
+      <c r="C52" s="58"/>
       <c r="J52" s="39"/>
     </row>
     <row r="53" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="59"/>
+      <c r="C53" s="58"/>
       <c r="J53" s="39"/>
     </row>
     <row r="54" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="59"/>
+      <c r="C54" s="58"/>
       <c r="J54" s="39"/>
     </row>
     <row r="55" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="59"/>
+      <c r="C55" s="58"/>
       <c r="J55" s="39"/>
     </row>
     <row r="56" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="59"/>
+      <c r="C56" s="58"/>
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="59"/>
+      <c r="C57" s="58"/>
       <c r="J57" s="39"/>
     </row>
     <row r="58" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="59"/>
+      <c r="C58" s="58"/>
       <c r="J58" s="39"/>
     </row>
     <row r="59" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="59"/>
+      <c r="C59" s="58"/>
       <c r="J59" s="39"/>
     </row>
     <row r="60" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="59"/>
+      <c r="C60" s="58"/>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="59"/>
+      <c r="C61" s="58"/>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="59"/>
+      <c r="C62" s="58"/>
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="59"/>
+      <c r="C63" s="58"/>
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="59"/>
+      <c r="C64" s="58"/>
       <c r="J64" s="39"/>
     </row>
     <row r="65" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="59"/>
+      <c r="C65" s="58"/>
       <c r="J65" s="39"/>
     </row>
     <row r="66" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="59"/>
+      <c r="C66" s="58"/>
       <c r="J66" s="39"/>
     </row>
     <row r="67" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="59"/>
+      <c r="C67" s="58"/>
       <c r="J67" s="39"/>
     </row>
     <row r="68" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="59"/>
+      <c r="C68" s="58"/>
       <c r="J68" s="39"/>
     </row>
     <row r="69" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="59"/>
+      <c r="C69" s="58"/>
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="59"/>
+      <c r="C70" s="58"/>
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="59"/>
+      <c r="C71" s="58"/>
       <c r="J71" s="39"/>
     </row>
     <row r="72" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="59"/>
+      <c r="C72" s="58"/>
       <c r="J72" s="39"/>
     </row>
     <row r="73" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="59"/>
+      <c r="C73" s="58"/>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="59"/>
+      <c r="C74" s="58"/>
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="59"/>
+      <c r="C75" s="58"/>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="59"/>
+      <c r="C76" s="58"/>
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="59"/>
+      <c r="C77" s="58"/>
       <c r="J77" s="39"/>
     </row>
     <row r="78" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="59"/>
+      <c r="C78" s="58"/>
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="59"/>
+      <c r="C79" s="58"/>
       <c r="J79" s="39"/>
     </row>
     <row r="80" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="59"/>
+      <c r="C80" s="58"/>
       <c r="J80" s="39"/>
     </row>
     <row r="81" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="59"/>
+      <c r="C81" s="58"/>
       <c r="J81" s="39"/>
     </row>
     <row r="82" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="59"/>
+      <c r="C82" s="58"/>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="59"/>
+      <c r="C83" s="58"/>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="59"/>
+      <c r="C84" s="58"/>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="59"/>
+      <c r="C85" s="58"/>
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="59"/>
+      <c r="C86" s="58"/>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="59"/>
+      <c r="C87" s="58"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="59"/>
+      <c r="C88" s="58"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="59"/>
+      <c r="C89" s="58"/>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="59"/>
+      <c r="C90" s="58"/>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="59"/>
+      <c r="C91" s="58"/>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="59"/>
+      <c r="C92" s="58"/>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="59"/>
+      <c r="C93" s="58"/>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="59"/>
+      <c r="C94" s="58"/>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="59"/>
+      <c r="C95" s="58"/>
       <c r="J95" s="39"/>
     </row>
     <row r="96" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="59"/>
+      <c r="C96" s="58"/>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="59"/>
+      <c r="C97" s="58"/>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="59"/>
+      <c r="C98" s="58"/>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="59"/>
+      <c r="C99" s="58"/>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="59"/>
+      <c r="C100" s="58"/>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="59"/>
+      <c r="C101" s="58"/>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="59"/>
+      <c r="C102" s="58"/>
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="59"/>
+      <c r="C103" s="58"/>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="59"/>
+      <c r="C104" s="58"/>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="59"/>
+      <c r="C105" s="58"/>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="59"/>
+      <c r="C106" s="58"/>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="59"/>
+      <c r="C107" s="58"/>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="59"/>
+      <c r="C108" s="58"/>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="59"/>
+      <c r="C109" s="58"/>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="59"/>
+      <c r="C110" s="58"/>
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="59"/>
+      <c r="C111" s="58"/>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="59"/>
+      <c r="C112" s="58"/>
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="59"/>
+      <c r="C113" s="58"/>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="59"/>
+      <c r="C114" s="58"/>
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="59"/>
+      <c r="C115" s="58"/>
       <c r="J115" s="39"/>
     </row>
     <row r="116" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="59"/>
+      <c r="C116" s="58"/>
       <c r="J116" s="39"/>
     </row>
     <row r="117" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="59"/>
+      <c r="C117" s="58"/>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="59"/>
+      <c r="C118" s="58"/>
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="59"/>
+      <c r="C119" s="58"/>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="59"/>
+      <c r="C120" s="58"/>
       <c r="J120" s="39"/>
     </row>
     <row r="121" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="59"/>
+      <c r="C121" s="58"/>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="59"/>
+      <c r="C122" s="58"/>
       <c r="J122" s="39"/>
     </row>
     <row r="123" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="59"/>
+      <c r="C123" s="58"/>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="59"/>
+      <c r="C124" s="58"/>
       <c r="J124" s="39"/>
     </row>
     <row r="125" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="59"/>
+      <c r="C125" s="58"/>
       <c r="J125" s="39"/>
     </row>
     <row r="126" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="59"/>
+      <c r="C126" s="58"/>
       <c r="J126" s="39"/>
     </row>
     <row r="127" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="59"/>
+      <c r="C127" s="58"/>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="59"/>
+      <c r="C128" s="58"/>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="59"/>
+      <c r="C129" s="58"/>
       <c r="J129" s="39"/>
     </row>
     <row r="130" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="59"/>
+      <c r="C130" s="58"/>
       <c r="J130" s="39"/>
     </row>
     <row r="131" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="59"/>
+      <c r="C131" s="58"/>
       <c r="J131" s="39"/>
     </row>
     <row r="132" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="59"/>
+      <c r="C132" s="58"/>
       <c r="J132" s="39"/>
     </row>
     <row r="133" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="59"/>
+      <c r="C133" s="58"/>
       <c r="J133" s="39"/>
     </row>
     <row r="134" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="59"/>
+      <c r="C134" s="58"/>
       <c r="J134" s="39"/>
     </row>
     <row r="135" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="59"/>
+      <c r="C135" s="58"/>
       <c r="J135" s="39"/>
     </row>
     <row r="136" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="59"/>
+      <c r="C136" s="58"/>
       <c r="J136" s="39"/>
     </row>
     <row r="137" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="59"/>
+      <c r="C137" s="58"/>
       <c r="J137" s="39"/>
     </row>
     <row r="138" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="59"/>
+      <c r="C138" s="58"/>
       <c r="J138" s="39"/>
     </row>
     <row r="139" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="59"/>
+      <c r="C139" s="58"/>
       <c r="J139" s="39"/>
     </row>
     <row r="140" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="59"/>
+      <c r="C140" s="58"/>
       <c r="J140" s="39"/>
     </row>
     <row r="141" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="59"/>
+      <c r="C141" s="58"/>
       <c r="J141" s="39"/>
     </row>
     <row r="142" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="59"/>
+      <c r="C142" s="58"/>
       <c r="J142" s="39"/>
     </row>
     <row r="143" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="59"/>
+      <c r="C143" s="58"/>
       <c r="J143" s="39"/>
     </row>
     <row r="144" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="59"/>
+      <c r="C144" s="58"/>
       <c r="J144" s="39"/>
     </row>
     <row r="145" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="59"/>
+      <c r="C145" s="58"/>
       <c r="J145" s="39"/>
     </row>
     <row r="146" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="59"/>
+      <c r="C146" s="58"/>
       <c r="J146" s="39"/>
     </row>
     <row r="147" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="59"/>
+      <c r="C147" s="58"/>
       <c r="J147" s="39"/>
     </row>
     <row r="148" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="59"/>
+      <c r="C148" s="58"/>
       <c r="J148" s="39"/>
     </row>
     <row r="149" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="59"/>
+      <c r="C149" s="58"/>
       <c r="J149" s="39"/>
     </row>
     <row r="150" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="59"/>
+      <c r="C150" s="58"/>
       <c r="J150" s="39"/>
     </row>
     <row r="151" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="59"/>
+      <c r="C151" s="58"/>
       <c r="J151" s="39"/>
     </row>
     <row r="152" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="59"/>
+      <c r="C152" s="58"/>
       <c r="J152" s="39"/>
     </row>
     <row r="153" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="59"/>
+      <c r="C153" s="58"/>
       <c r="J153" s="39"/>
     </row>
     <row r="154" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="59"/>
+      <c r="C154" s="58"/>
       <c r="J154" s="39"/>
     </row>
     <row r="155" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="59"/>
+      <c r="C155" s="58"/>
       <c r="J155" s="39"/>
     </row>
     <row r="156" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="59"/>
+      <c r="C156" s="58"/>
       <c r="J156" s="39"/>
     </row>
     <row r="157" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="59"/>
+      <c r="C157" s="58"/>
       <c r="J157" s="39"/>
     </row>
     <row r="158" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="59"/>
+      <c r="C158" s="58"/>
       <c r="J158" s="39"/>
     </row>
     <row r="159" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="59"/>
+      <c r="C159" s="58"/>
       <c r="J159" s="39"/>
     </row>
     <row r="160" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="59"/>
+      <c r="C160" s="58"/>
       <c r="J160" s="39"/>
     </row>
     <row r="161" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="59"/>
+      <c r="C161" s="58"/>
       <c r="J161" s="39"/>
     </row>
     <row r="162" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="59"/>
+      <c r="C162" s="58"/>
       <c r="J162" s="39"/>
     </row>
     <row r="163" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="59"/>
+      <c r="C163" s="58"/>
       <c r="J163" s="39"/>
     </row>
     <row r="164" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="59"/>
+      <c r="C164" s="58"/>
       <c r="J164" s="39"/>
     </row>
     <row r="165" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="59"/>
+      <c r="C165" s="58"/>
       <c r="J165" s="39"/>
     </row>
     <row r="166" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="59"/>
+      <c r="C166" s="58"/>
       <c r="J166" s="39"/>
     </row>
     <row r="167" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="59"/>
+      <c r="C167" s="58"/>
       <c r="J167" s="39"/>
     </row>
     <row r="168" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="59"/>
+      <c r="C168" s="58"/>
       <c r="J168" s="39"/>
     </row>
     <row r="169" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="59"/>
+      <c r="C169" s="58"/>
       <c r="J169" s="39"/>
     </row>
     <row r="170" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="59"/>
+      <c r="C170" s="58"/>
       <c r="J170" s="39"/>
     </row>
     <row r="171" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="59"/>
+      <c r="C171" s="58"/>
       <c r="J171" s="39"/>
     </row>
     <row r="172" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="59"/>
+      <c r="C172" s="58"/>
       <c r="J172" s="39"/>
     </row>
     <row r="173" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="59"/>
+      <c r="C173" s="58"/>
       <c r="J173" s="39"/>
     </row>
     <row r="174" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="59"/>
+      <c r="C174" s="58"/>
       <c r="J174" s="39"/>
     </row>
     <row r="175" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="59"/>
+      <c r="C175" s="58"/>
       <c r="J175" s="39"/>
     </row>
     <row r="176" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="59"/>
+      <c r="C176" s="58"/>
       <c r="J176" s="39"/>
     </row>
     <row r="177" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="59"/>
+      <c r="C177" s="58"/>
       <c r="J177" s="39"/>
     </row>
     <row r="178" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="59"/>
+      <c r="C178" s="58"/>
       <c r="J178" s="39"/>
     </row>
     <row r="179" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="59"/>
+      <c r="C179" s="58"/>
       <c r="J179" s="39"/>
     </row>
     <row r="180" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="59"/>
+      <c r="C180" s="58"/>
       <c r="J180" s="39"/>
     </row>
     <row r="181" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="59"/>
+      <c r="C181" s="58"/>
       <c r="J181" s="39"/>
     </row>
     <row r="182" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="59"/>
+      <c r="C182" s="58"/>
       <c r="J182" s="39"/>
     </row>
     <row r="183" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C183" s="59"/>
+      <c r="C183" s="58"/>
       <c r="J183" s="39"/>
     </row>
     <row r="184" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="59"/>
+      <c r="C184" s="58"/>
       <c r="J184" s="39"/>
     </row>
     <row r="185" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="59"/>
+      <c r="C185" s="58"/>
       <c r="J185" s="39"/>
     </row>
     <row r="186" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="59"/>
+      <c r="C186" s="58"/>
       <c r="J186" s="39"/>
     </row>
     <row r="187" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="59"/>
+      <c r="C187" s="58"/>
       <c r="J187" s="39"/>
     </row>
     <row r="188" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="59"/>
+      <c r="C188" s="58"/>
       <c r="J188" s="39"/>
     </row>
     <row r="189" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="59"/>
+      <c r="C189" s="58"/>
       <c r="J189" s="39"/>
     </row>
     <row r="190" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="59"/>
+      <c r="C190" s="58"/>
       <c r="J190" s="39"/>
     </row>
     <row r="191" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="59"/>
+      <c r="C191" s="58"/>
       <c r="J191" s="39"/>
     </row>
     <row r="192" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="59"/>
+      <c r="C192" s="58"/>
       <c r="J192" s="39"/>
     </row>
     <row r="193" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="59"/>
+      <c r="C193" s="58"/>
       <c r="J193" s="39"/>
     </row>
     <row r="194" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="59"/>
+      <c r="C194" s="58"/>
       <c r="J194" s="39"/>
     </row>
     <row r="195" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="59"/>
+      <c r="C195" s="58"/>
       <c r="J195" s="39"/>
     </row>
     <row r="196" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="59"/>
+      <c r="C196" s="58"/>
       <c r="J196" s="39"/>
     </row>
     <row r="197" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="59"/>
+      <c r="C197" s="58"/>
       <c r="J197" s="39"/>
     </row>
     <row r="198" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="59"/>
+      <c r="C198" s="58"/>
       <c r="J198" s="39"/>
     </row>
     <row r="199" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="59"/>
+      <c r="C199" s="58"/>
       <c r="J199" s="39"/>
     </row>
     <row r="200" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="59"/>
+      <c r="C200" s="58"/>
       <c r="J200" s="39"/>
     </row>
     <row r="201" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="59"/>
+      <c r="C201" s="58"/>
       <c r="J201" s="39"/>
     </row>
     <row r="202" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="59"/>
+      <c r="C202" s="58"/>
       <c r="J202" s="39"/>
     </row>
     <row r="203" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="59"/>
+      <c r="C203" s="58"/>
       <c r="J203" s="39"/>
     </row>
     <row r="204" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="59"/>
+      <c r="C204" s="58"/>
       <c r="J204" s="39"/>
     </row>
     <row r="205" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="59"/>
+      <c r="C205" s="58"/>
       <c r="J205" s="39"/>
     </row>
     <row r="206" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C206" s="59"/>
+      <c r="C206" s="58"/>
       <c r="J206" s="39"/>
     </row>
     <row r="207" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C207" s="59"/>
+      <c r="C207" s="58"/>
       <c r="J207" s="39"/>
     </row>
     <row r="208" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C208" s="59"/>
+      <c r="C208" s="58"/>
       <c r="J208" s="39"/>
     </row>
     <row r="209" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C209" s="59"/>
+      <c r="C209" s="58"/>
       <c r="J209" s="39"/>
     </row>
     <row r="210" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C210" s="59"/>
+      <c r="C210" s="58"/>
       <c r="J210" s="39"/>
     </row>
     <row r="211" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C211" s="59"/>
+      <c r="C211" s="58"/>
       <c r="J211" s="39"/>
     </row>
     <row r="212" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C212" s="59"/>
+      <c r="C212" s="58"/>
       <c r="J212" s="39"/>
     </row>
     <row r="213" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C213" s="59"/>
+      <c r="C213" s="58"/>
       <c r="J213" s="39"/>
     </row>
     <row r="214" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C214" s="59"/>
+      <c r="C214" s="58"/>
       <c r="J214" s="39"/>
     </row>
     <row r="215" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C215" s="59"/>
+      <c r="C215" s="58"/>
       <c r="J215" s="39"/>
     </row>
     <row r="216" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="59"/>
+      <c r="C216" s="58"/>
       <c r="J216" s="39"/>
     </row>
     <row r="217" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C217" s="59"/>
+      <c r="C217" s="58"/>
       <c r="J217" s="39"/>
     </row>
     <row r="218" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C218" s="59"/>
+      <c r="C218" s="58"/>
       <c r="J218" s="39"/>
     </row>
     <row r="219" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C219" s="59"/>
+      <c r="C219" s="58"/>
       <c r="J219" s="39"/>
     </row>
     <row r="220" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C220" s="59"/>
+      <c r="C220" s="58"/>
       <c r="J220" s="39"/>
     </row>
     <row r="221" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C221" s="59"/>
+      <c r="C221" s="58"/>
       <c r="J221" s="39"/>
     </row>
     <row r="222" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C222" s="59"/>
+      <c r="C222" s="58"/>
       <c r="J222" s="39"/>
     </row>
     <row r="223" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C223" s="59"/>
+      <c r="C223" s="58"/>
       <c r="J223" s="39"/>
     </row>
     <row r="224" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C224" s="59"/>
+      <c r="C224" s="58"/>
       <c r="J224" s="39"/>
     </row>
     <row r="225" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C225" s="59"/>
+      <c r="C225" s="58"/>
       <c r="J225" s="39"/>
     </row>
     <row r="226" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C226" s="59"/>
+      <c r="C226" s="58"/>
       <c r="J226" s="39"/>
     </row>
     <row r="227" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="59"/>
+      <c r="C227" s="58"/>
       <c r="J227" s="39"/>
     </row>
     <row r="228" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="59"/>
+      <c r="C228" s="58"/>
       <c r="J228" s="39"/>
     </row>
     <row r="229" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C229" s="59"/>
+      <c r="C229" s="58"/>
       <c r="J229" s="39"/>
     </row>
     <row r="230" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C230" s="59"/>
+      <c r="C230" s="58"/>
       <c r="J230" s="39"/>
     </row>
     <row r="231" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C231" s="59"/>
+      <c r="C231" s="58"/>
       <c r="J231" s="39"/>
     </row>
     <row r="232" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C232" s="59"/>
+      <c r="C232" s="58"/>
       <c r="J232" s="39"/>
     </row>
     <row r="233" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C233" s="59"/>
+      <c r="C233" s="58"/>
       <c r="J233" s="39"/>
     </row>
     <row r="234" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C234" s="59"/>
+      <c r="C234" s="58"/>
       <c r="J234" s="39"/>
     </row>
     <row r="235" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C235" s="59"/>
+      <c r="C235" s="58"/>
       <c r="J235" s="39"/>
     </row>
     <row r="236" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C236" s="59"/>
+      <c r="C236" s="58"/>
       <c r="J236" s="39"/>
     </row>
     <row r="237" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C237" s="59"/>
+      <c r="C237" s="58"/>
       <c r="J237" s="39"/>
     </row>
     <row r="238" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C238" s="59"/>
+      <c r="C238" s="58"/>
       <c r="J238" s="39"/>
     </row>
     <row r="239" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C239" s="59"/>
+      <c r="C239" s="58"/>
       <c r="J239" s="39"/>
     </row>
     <row r="240" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C240" s="59"/>
+      <c r="C240" s="58"/>
       <c r="J240" s="39"/>
     </row>
     <row r="241" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C241" s="59"/>
+      <c r="C241" s="58"/>
       <c r="J241" s="39"/>
     </row>
     <row r="242" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C242" s="59"/>
+      <c r="C242" s="58"/>
       <c r="J242" s="39"/>
     </row>
     <row r="243" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C243" s="59"/>
+      <c r="C243" s="58"/>
       <c r="J243" s="39"/>
     </row>
     <row r="244" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C244" s="59"/>
+      <c r="C244" s="58"/>
       <c r="J244" s="39"/>
     </row>
     <row r="245" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C245" s="59"/>
+      <c r="C245" s="58"/>
       <c r="J245" s="39"/>
     </row>
     <row r="246" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C246" s="59"/>
+      <c r="C246" s="58"/>
       <c r="J246" s="39"/>
     </row>
     <row r="247" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C247" s="59"/>
+      <c r="C247" s="58"/>
       <c r="J247" s="39"/>
     </row>
     <row r="248" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C248" s="59"/>
+      <c r="C248" s="58"/>
       <c r="J248" s="39"/>
     </row>
     <row r="249" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C249" s="59"/>
+      <c r="C249" s="58"/>
       <c r="J249" s="39"/>
     </row>
     <row r="250" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C250" s="59"/>
+      <c r="C250" s="58"/>
       <c r="J250" s="39"/>
     </row>
     <row r="251" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C251" s="59"/>
+      <c r="C251" s="58"/>
       <c r="J251" s="39"/>
     </row>
     <row r="252" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C252" s="59"/>
+      <c r="C252" s="58"/>
       <c r="J252" s="39"/>
     </row>
     <row r="253" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C253" s="59"/>
+      <c r="C253" s="58"/>
       <c r="J253" s="39"/>
     </row>
     <row r="254" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C254" s="59"/>
+      <c r="C254" s="58"/>
       <c r="J254" s="39"/>
     </row>
     <row r="255" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C255" s="59"/>
+      <c r="C255" s="58"/>
       <c r="J255" s="39"/>
     </row>
     <row r="256" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C256" s="59"/>
+      <c r="C256" s="58"/>
       <c r="J256" s="39"/>
     </row>
     <row r="257" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C257" s="59"/>
+      <c r="C257" s="58"/>
       <c r="J257" s="39"/>
     </row>
     <row r="258" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C258" s="59"/>
+      <c r="C258" s="58"/>
       <c r="J258" s="39"/>
     </row>
     <row r="259" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C259" s="59"/>
+      <c r="C259" s="58"/>
       <c r="J259" s="39"/>
     </row>
     <row r="260" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C260" s="59"/>
+      <c r="C260" s="58"/>
       <c r="J260" s="39"/>
     </row>
     <row r="261" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C261" s="59"/>
+      <c r="C261" s="58"/>
       <c r="J261" s="39"/>
     </row>
     <row r="262" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C262" s="59"/>
+      <c r="C262" s="58"/>
       <c r="J262" s="39"/>
     </row>
     <row r="263" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C263" s="59"/>
+      <c r="C263" s="58"/>
       <c r="J263" s="39"/>
     </row>
     <row r="264" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C264" s="59"/>
+      <c r="C264" s="58"/>
       <c r="J264" s="39"/>
     </row>
     <row r="265" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C265" s="59"/>
+      <c r="C265" s="58"/>
       <c r="J265" s="39"/>
     </row>
     <row r="266" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C266" s="59"/>
+      <c r="C266" s="58"/>
       <c r="J266" s="39"/>
     </row>
     <row r="267" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C267" s="59"/>
+      <c r="C267" s="58"/>
       <c r="J267" s="39"/>
     </row>
     <row r="268" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C268" s="59"/>
+      <c r="C268" s="58"/>
       <c r="J268" s="39"/>
     </row>
     <row r="269" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C269" s="59"/>
+      <c r="C269" s="58"/>
       <c r="J269" s="39"/>
     </row>
     <row r="270" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C270" s="59"/>
+      <c r="C270" s="58"/>
       <c r="J270" s="39"/>
     </row>
     <row r="271" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C271" s="59"/>
+      <c r="C271" s="58"/>
       <c r="J271" s="39"/>
     </row>
     <row r="272" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C272" s="59"/>
+      <c r="C272" s="58"/>
       <c r="J272" s="39"/>
     </row>
     <row r="273" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C273" s="59"/>
+      <c r="C273" s="58"/>
       <c r="J273" s="39"/>
     </row>
     <row r="274" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C274" s="59"/>
+      <c r="C274" s="58"/>
       <c r="J274" s="39"/>
     </row>
     <row r="275" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C275" s="59"/>
+      <c r="C275" s="58"/>
       <c r="J275" s="39"/>
     </row>
     <row r="276" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C276" s="59"/>
+      <c r="C276" s="58"/>
       <c r="J276" s="39"/>
     </row>
     <row r="277" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C277" s="59"/>
+      <c r="C277" s="58"/>
       <c r="J277" s="39"/>
     </row>
     <row r="278" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C278" s="59"/>
+      <c r="C278" s="58"/>
       <c r="J278" s="39"/>
     </row>
     <row r="279" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C279" s="59"/>
+      <c r="C279" s="58"/>
       <c r="J279" s="39"/>
     </row>
     <row r="280" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C280" s="59"/>
+      <c r="C280" s="58"/>
       <c r="J280" s="39"/>
     </row>
     <row r="281" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C281" s="59"/>
+      <c r="C281" s="58"/>
       <c r="J281" s="39"/>
     </row>
     <row r="282" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C282" s="59"/>
+      <c r="C282" s="58"/>
       <c r="J282" s="39"/>
     </row>
     <row r="283" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C283" s="59"/>
+      <c r="C283" s="58"/>
       <c r="J283" s="39"/>
     </row>
     <row r="284" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C284" s="59"/>
+      <c r="C284" s="58"/>
       <c r="J284" s="39"/>
     </row>
     <row r="285" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C285" s="59"/>
+      <c r="C285" s="58"/>
       <c r="J285" s="39"/>
     </row>
     <row r="286" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C286" s="59"/>
+      <c r="C286" s="58"/>
       <c r="J286" s="39"/>
     </row>
     <row r="287" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C287" s="59"/>
+      <c r="C287" s="58"/>
       <c r="J287" s="39"/>
     </row>
     <row r="288" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C288" s="59"/>
+      <c r="C288" s="58"/>
       <c r="J288" s="39"/>
     </row>
     <row r="289" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C289" s="59"/>
+      <c r="C289" s="58"/>
       <c r="J289" s="39"/>
     </row>
     <row r="290" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C290" s="59"/>
+      <c r="C290" s="58"/>
       <c r="J290" s="39"/>
     </row>
     <row r="291" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C291" s="59"/>
+      <c r="C291" s="58"/>
       <c r="J291" s="39"/>
     </row>
     <row r="292" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C292" s="59"/>
+      <c r="C292" s="58"/>
       <c r="J292" s="39"/>
     </row>
     <row r="293" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C293" s="59"/>
+      <c r="C293" s="58"/>
       <c r="J293" s="39"/>
     </row>
     <row r="294" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C294" s="59"/>
+      <c r="C294" s="58"/>
       <c r="J294" s="39"/>
     </row>
     <row r="295" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C295" s="59"/>
+      <c r="C295" s="58"/>
       <c r="J295" s="39"/>
     </row>
     <row r="296" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C296" s="59"/>
+      <c r="C296" s="58"/>
       <c r="J296" s="39"/>
     </row>
     <row r="297" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C297" s="59"/>
+      <c r="C297" s="58"/>
       <c r="J297" s="39"/>
     </row>
     <row r="298" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C298" s="59"/>
+      <c r="C298" s="58"/>
       <c r="J298" s="39"/>
     </row>
     <row r="299" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C299" s="59"/>
+      <c r="C299" s="58"/>
       <c r="J299" s="39"/>
     </row>
     <row r="300" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C300" s="59"/>
+      <c r="C300" s="58"/>
       <c r="J300" s="39"/>
     </row>
     <row r="301" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C301" s="59"/>
+      <c r="C301" s="58"/>
       <c r="J301" s="39"/>
     </row>
     <row r="302" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C302" s="59"/>
+      <c r="C302" s="58"/>
       <c r="J302" s="39"/>
     </row>
     <row r="303" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C303" s="59"/>
+      <c r="C303" s="58"/>
       <c r="J303" s="39"/>
     </row>
     <row r="304" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C304" s="59"/>
+      <c r="C304" s="58"/>
       <c r="J304" s="39"/>
     </row>
     <row r="305" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C305" s="59"/>
+      <c r="C305" s="58"/>
       <c r="J305" s="39"/>
     </row>
     <row r="306" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C306" s="59"/>
+      <c r="C306" s="58"/>
       <c r="J306" s="39"/>
     </row>
     <row r="307" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C307" s="59"/>
+      <c r="C307" s="58"/>
       <c r="J307" s="39"/>
     </row>
     <row r="308" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C308" s="59"/>
+      <c r="C308" s="58"/>
       <c r="J308" s="39"/>
     </row>
     <row r="309" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C309" s="59"/>
+      <c r="C309" s="58"/>
       <c r="J309" s="39"/>
     </row>
     <row r="310" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C310" s="59"/>
+      <c r="C310" s="58"/>
       <c r="J310" s="39"/>
     </row>
     <row r="311" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C311" s="59"/>
+      <c r="C311" s="58"/>
       <c r="J311" s="39"/>
     </row>
     <row r="312" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C312" s="59"/>
+      <c r="C312" s="58"/>
       <c r="J312" s="39"/>
     </row>
     <row r="313" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C313" s="59"/>
+      <c r="C313" s="58"/>
       <c r="J313" s="39"/>
     </row>
     <row r="314" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C314" s="59"/>
+      <c r="C314" s="58"/>
       <c r="J314" s="39"/>
     </row>
     <row r="315" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C315" s="59"/>
+      <c r="C315" s="58"/>
       <c r="J315" s="39"/>
     </row>
     <row r="316" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C316" s="59"/>
+      <c r="C316" s="58"/>
       <c r="J316" s="39"/>
     </row>
     <row r="317" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C317" s="59"/>
+      <c r="C317" s="58"/>
       <c r="J317" s="39"/>
     </row>
     <row r="318" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C318" s="59"/>
+      <c r="C318" s="58"/>
       <c r="J318" s="39"/>
     </row>
     <row r="319" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C319" s="59"/>
+      <c r="C319" s="58"/>
       <c r="J319" s="39"/>
     </row>
     <row r="320" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C320" s="59"/>
+      <c r="C320" s="58"/>
       <c r="J320" s="39"/>
     </row>
     <row r="321" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="59"/>
+      <c r="C321" s="58"/>
       <c r="J321" s="39"/>
     </row>
     <row r="322" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C322" s="59"/>
+      <c r="C322" s="58"/>
       <c r="J322" s="39"/>
     </row>
     <row r="323" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="59"/>
+      <c r="C323" s="58"/>
       <c r="J323" s="39"/>
     </row>
     <row r="324" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C324" s="59"/>
+      <c r="C324" s="58"/>
       <c r="J324" s="39"/>
     </row>
     <row r="325" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C325" s="59"/>
+      <c r="C325" s="58"/>
       <c r="J325" s="39"/>
     </row>
     <row r="326" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C326" s="59"/>
+      <c r="C326" s="58"/>
       <c r="J326" s="39"/>
     </row>
     <row r="327" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C327" s="59"/>
+      <c r="C327" s="58"/>
       <c r="J327" s="39"/>
     </row>
     <row r="328" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C328" s="59"/>
+      <c r="C328" s="58"/>
       <c r="J328" s="39"/>
     </row>
     <row r="329" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C329" s="59"/>
+      <c r="C329" s="58"/>
       <c r="J329" s="39"/>
     </row>
     <row r="330" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C330" s="59"/>
+      <c r="C330" s="58"/>
       <c r="J330" s="39"/>
     </row>
     <row r="331" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C331" s="59"/>
+      <c r="C331" s="58"/>
       <c r="J331" s="39"/>
     </row>
     <row r="332" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C332" s="59"/>
+      <c r="C332" s="58"/>
       <c r="J332" s="39"/>
     </row>
     <row r="333" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C333" s="59"/>
+      <c r="C333" s="58"/>
       <c r="J333" s="39"/>
     </row>
     <row r="334" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C334" s="59"/>
+      <c r="C334" s="58"/>
       <c r="J334" s="39"/>
     </row>
     <row r="335" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C335" s="59"/>
+      <c r="C335" s="58"/>
       <c r="J335" s="39"/>
     </row>
     <row r="336" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C336" s="59"/>
+      <c r="C336" s="58"/>
       <c r="J336" s="39"/>
     </row>
     <row r="337" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C337" s="59"/>
+      <c r="C337" s="58"/>
       <c r="J337" s="39"/>
     </row>
     <row r="338" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C338" s="59"/>
+      <c r="C338" s="58"/>
       <c r="J338" s="39"/>
     </row>
     <row r="339" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C339" s="59"/>
+      <c r="C339" s="58"/>
       <c r="J339" s="39"/>
     </row>
     <row r="340" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C340" s="59"/>
+      <c r="C340" s="58"/>
       <c r="J340" s="39"/>
     </row>
     <row r="341" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C341" s="59"/>
+      <c r="C341" s="58"/>
       <c r="J341" s="39"/>
     </row>
     <row r="342" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C342" s="59"/>
+      <c r="C342" s="58"/>
       <c r="J342" s="39"/>
     </row>
     <row r="343" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C343" s="59"/>
+      <c r="C343" s="58"/>
       <c r="J343" s="39"/>
     </row>
     <row r="344" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C344" s="59"/>
+      <c r="C344" s="58"/>
       <c r="J344" s="39"/>
     </row>
     <row r="345" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C345" s="59"/>
+      <c r="C345" s="58"/>
       <c r="J345" s="39"/>
     </row>
     <row r="346" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C346" s="59"/>
+      <c r="C346" s="58"/>
       <c r="J346" s="39"/>
     </row>
     <row r="347" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C347" s="59"/>
+      <c r="C347" s="58"/>
       <c r="J347" s="39"/>
     </row>
     <row r="348" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C348" s="59"/>
+      <c r="C348" s="58"/>
       <c r="J348" s="39"/>
     </row>
     <row r="349" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C349" s="59"/>
+      <c r="C349" s="58"/>
       <c r="J349" s="39"/>
     </row>
     <row r="350" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C350" s="59"/>
+      <c r="C350" s="58"/>
       <c r="J350" s="39"/>
     </row>
     <row r="351" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C351" s="59"/>
+      <c r="C351" s="58"/>
       <c r="J351" s="39"/>
     </row>
     <row r="352" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C352" s="59"/>
+      <c r="C352" s="58"/>
       <c r="J352" s="39"/>
     </row>
     <row r="353" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C353" s="59"/>
+      <c r="C353" s="58"/>
       <c r="J353" s="39"/>
     </row>
     <row r="354" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C354" s="59"/>
+      <c r="C354" s="58"/>
       <c r="J354" s="39"/>
     </row>
     <row r="355" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C355" s="59"/>
+      <c r="C355" s="58"/>
       <c r="J355" s="39"/>
     </row>
     <row r="356" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C356" s="59"/>
+      <c r="C356" s="58"/>
       <c r="J356" s="39"/>
     </row>
     <row r="357" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C357" s="59"/>
+      <c r="C357" s="58"/>
       <c r="J357" s="39"/>
     </row>
     <row r="358" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C358" s="59"/>
+      <c r="C358" s="58"/>
       <c r="J358" s="39"/>
     </row>
     <row r="359" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C359" s="59"/>
+      <c r="C359" s="58"/>
       <c r="J359" s="39"/>
     </row>
     <row r="360" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C360" s="59"/>
+      <c r="C360" s="58"/>
       <c r="J360" s="39"/>
     </row>
     <row r="361" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C361" s="59"/>
+      <c r="C361" s="58"/>
       <c r="J361" s="39"/>
     </row>
     <row r="362" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C362" s="59"/>
+      <c r="C362" s="58"/>
       <c r="J362" s="39"/>
     </row>
     <row r="363" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C363" s="59"/>
+      <c r="C363" s="58"/>
       <c r="J363" s="39"/>
     </row>
     <row r="364" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C364" s="59"/>
+      <c r="C364" s="58"/>
       <c r="J364" s="39"/>
     </row>
     <row r="365" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C365" s="59"/>
+      <c r="C365" s="58"/>
       <c r="J365" s="39"/>
     </row>
     <row r="366" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C366" s="59"/>
+      <c r="C366" s="58"/>
       <c r="J366" s="39"/>
     </row>
     <row r="367" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C367" s="59"/>
+      <c r="C367" s="58"/>
       <c r="J367" s="39"/>
     </row>
     <row r="368" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C368" s="59"/>
+      <c r="C368" s="58"/>
       <c r="J368" s="39"/>
     </row>
     <row r="369" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C369" s="59"/>
+      <c r="C369" s="58"/>
       <c r="J369" s="39"/>
     </row>
     <row r="370" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C370" s="59"/>
+      <c r="C370" s="58"/>
       <c r="J370" s="39"/>
     </row>
     <row r="371" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C371" s="59"/>
+      <c r="C371" s="58"/>
       <c r="J371" s="39"/>
     </row>
     <row r="372" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C372" s="59"/>
+      <c r="C372" s="58"/>
       <c r="J372" s="39"/>
     </row>
     <row r="373" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C373" s="59"/>
+      <c r="C373" s="58"/>
       <c r="J373" s="39"/>
     </row>
     <row r="374" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C374" s="59"/>
+      <c r="C374" s="58"/>
       <c r="J374" s="39"/>
     </row>
     <row r="375" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C375" s="59"/>
+      <c r="C375" s="58"/>
       <c r="J375" s="39"/>
     </row>
     <row r="376" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C376" s="59"/>
+      <c r="C376" s="58"/>
       <c r="J376" s="39"/>
     </row>
     <row r="377" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C377" s="59"/>
+      <c r="C377" s="58"/>
       <c r="J377" s="39"/>
     </row>
     <row r="378" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C378" s="59"/>
+      <c r="C378" s="58"/>
       <c r="J378" s="39"/>
     </row>
     <row r="379" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C379" s="59"/>
+      <c r="C379" s="58"/>
       <c r="J379" s="39"/>
     </row>
     <row r="380" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C380" s="59"/>
+      <c r="C380" s="58"/>
       <c r="J380" s="39"/>
     </row>
     <row r="381" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C381" s="59"/>
+      <c r="C381" s="58"/>
       <c r="J381" s="39"/>
     </row>
     <row r="382" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C382" s="59"/>
+      <c r="C382" s="58"/>
       <c r="J382" s="39"/>
     </row>
     <row r="383" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C383" s="59"/>
+      <c r="C383" s="58"/>
       <c r="J383" s="39"/>
     </row>
     <row r="384" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C384" s="59"/>
+      <c r="C384" s="58"/>
       <c r="J384" s="39"/>
     </row>
     <row r="385" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C385" s="59"/>
+      <c r="C385" s="58"/>
       <c r="J385" s="39"/>
     </row>
     <row r="386" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C386" s="59"/>
+      <c r="C386" s="58"/>
       <c r="J386" s="39"/>
     </row>
     <row r="387" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C387" s="59"/>
+      <c r="C387" s="58"/>
       <c r="J387" s="39"/>
     </row>
     <row r="388" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C388" s="59"/>
+      <c r="C388" s="58"/>
       <c r="J388" s="39"/>
     </row>
     <row r="389" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C389" s="59"/>
+      <c r="C389" s="58"/>
       <c r="J389" s="39"/>
     </row>
     <row r="390" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C390" s="59"/>
+      <c r="C390" s="58"/>
       <c r="J390" s="39"/>
     </row>
     <row r="391" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C391" s="59"/>
+      <c r="C391" s="58"/>
       <c r="J391" s="39"/>
     </row>
     <row r="392" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C392" s="59"/>
+      <c r="C392" s="58"/>
       <c r="J392" s="39"/>
     </row>
     <row r="393" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C393" s="59"/>
+      <c r="C393" s="58"/>
       <c r="J393" s="39"/>
     </row>
     <row r="394" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C394" s="59"/>
+      <c r="C394" s="58"/>
       <c r="J394" s="39"/>
     </row>
     <row r="395" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C395" s="59"/>
+      <c r="C395" s="58"/>
       <c r="J395" s="39"/>
     </row>
     <row r="396" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C396" s="59"/>
+      <c r="C396" s="58"/>
       <c r="J396" s="39"/>
     </row>
     <row r="397" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C397" s="59"/>
+      <c r="C397" s="58"/>
       <c r="J397" s="39"/>
     </row>
     <row r="398" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C398" s="59"/>
+      <c r="C398" s="58"/>
       <c r="J398" s="39"/>
     </row>
     <row r="399" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C399" s="59"/>
+      <c r="C399" s="58"/>
       <c r="J399" s="39"/>
     </row>
     <row r="400" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C400" s="59"/>
+      <c r="C400" s="58"/>
       <c r="J400" s="39"/>
     </row>
     <row r="401" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C401" s="59"/>
+      <c r="C401" s="58"/>
       <c r="J401" s="39"/>
     </row>
     <row r="402" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C402" s="59"/>
+      <c r="C402" s="58"/>
       <c r="J402" s="39"/>
     </row>
     <row r="403" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C403" s="59"/>
+      <c r="C403" s="58"/>
       <c r="J403" s="39"/>
     </row>
     <row r="404" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C404" s="59"/>
+      <c r="C404" s="58"/>
       <c r="J404" s="39"/>
     </row>
     <row r="405" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C405" s="59"/>
+      <c r="C405" s="58"/>
       <c r="J405" s="39"/>
     </row>
     <row r="406" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C406" s="59"/>
+      <c r="C406" s="58"/>
       <c r="J406" s="39"/>
     </row>
     <row r="407" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C407" s="59"/>
+      <c r="C407" s="58"/>
       <c r="J407" s="39"/>
     </row>
     <row r="408" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C408" s="59"/>
+      <c r="C408" s="58"/>
       <c r="J408" s="39"/>
     </row>
     <row r="409" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C409" s="59"/>
+      <c r="C409" s="58"/>
       <c r="J409" s="39"/>
     </row>
     <row r="410" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C410" s="59"/>
+      <c r="C410" s="58"/>
       <c r="J410" s="39"/>
     </row>
     <row r="411" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C411" s="59"/>
+      <c r="C411" s="58"/>
       <c r="J411" s="39"/>
     </row>
     <row r="412" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C412" s="59"/>
+      <c r="C412" s="58"/>
       <c r="J412" s="39"/>
     </row>
     <row r="413" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C413" s="59"/>
+      <c r="C413" s="58"/>
       <c r="J413" s="39"/>
     </row>
     <row r="414" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C414" s="59"/>
+      <c r="C414" s="58"/>
       <c r="J414" s="39"/>
     </row>
     <row r="415" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C415" s="59"/>
+      <c r="C415" s="58"/>
       <c r="J415" s="39"/>
     </row>
     <row r="416" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C416" s="59"/>
+      <c r="C416" s="58"/>
       <c r="J416" s="39"/>
     </row>
     <row r="417" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C417" s="59"/>
+      <c r="C417" s="58"/>
       <c r="J417" s="39"/>
     </row>
     <row r="418" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C418" s="59"/>
+      <c r="C418" s="58"/>
       <c r="J418" s="39"/>
     </row>
     <row r="419" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C419" s="59"/>
+      <c r="C419" s="58"/>
       <c r="J419" s="39"/>
     </row>
     <row r="420" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C420" s="59"/>
+      <c r="C420" s="58"/>
       <c r="J420" s="39"/>
     </row>
     <row r="421" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C421" s="59"/>
+      <c r="C421" s="58"/>
       <c r="J421" s="39"/>
     </row>
     <row r="422" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C422" s="59"/>
+      <c r="C422" s="58"/>
       <c r="J422" s="39"/>
     </row>
     <row r="423" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C423" s="59"/>
+      <c r="C423" s="58"/>
       <c r="J423" s="39"/>
     </row>
     <row r="424" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C424" s="59"/>
+      <c r="C424" s="58"/>
       <c r="J424" s="39"/>
     </row>
     <row r="425" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C425" s="59"/>
+      <c r="C425" s="58"/>
       <c r="J425" s="39"/>
     </row>
     <row r="426" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C426" s="59"/>
+      <c r="C426" s="58"/>
       <c r="J426" s="39"/>
     </row>
     <row r="427" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C427" s="59"/>
+      <c r="C427" s="58"/>
       <c r="J427" s="39"/>
     </row>
     <row r="428" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C428" s="59"/>
+      <c r="C428" s="58"/>
       <c r="J428" s="39"/>
     </row>
     <row r="429" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C429" s="59"/>
+      <c r="C429" s="58"/>
       <c r="J429" s="39"/>
     </row>
     <row r="430" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C430" s="59"/>
+      <c r="C430" s="58"/>
       <c r="J430" s="39"/>
     </row>
     <row r="431" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C431" s="59"/>
+      <c r="C431" s="58"/>
       <c r="J431" s="39"/>
     </row>
     <row r="432" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C432" s="59"/>
+      <c r="C432" s="58"/>
       <c r="J432" s="39"/>
     </row>
     <row r="433" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C433" s="59"/>
+      <c r="C433" s="58"/>
       <c r="J433" s="39"/>
     </row>
     <row r="434" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C434" s="59"/>
+      <c r="C434" s="58"/>
       <c r="J434" s="39"/>
     </row>
     <row r="435" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C435" s="59"/>
+      <c r="C435" s="58"/>
       <c r="J435" s="39"/>
     </row>
     <row r="436" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C436" s="59"/>
+      <c r="C436" s="58"/>
       <c r="J436" s="39"/>
     </row>
     <row r="437" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C437" s="59"/>
+      <c r="C437" s="58"/>
       <c r="J437" s="39"/>
     </row>
     <row r="438" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C438" s="59"/>
+      <c r="C438" s="58"/>
       <c r="J438" s="39"/>
     </row>
     <row r="439" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C439" s="59"/>
+      <c r="C439" s="58"/>
       <c r="J439" s="39"/>
     </row>
     <row r="440" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C440" s="59"/>
+      <c r="C440" s="58"/>
       <c r="J440" s="39"/>
     </row>
     <row r="441" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C441" s="59"/>
+      <c r="C441" s="58"/>
       <c r="J441" s="39"/>
     </row>
     <row r="442" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C442" s="59"/>
+      <c r="C442" s="58"/>
       <c r="J442" s="39"/>
     </row>
     <row r="443" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C443" s="59"/>
+      <c r="C443" s="58"/>
       <c r="J443" s="39"/>
     </row>
     <row r="444" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C444" s="59"/>
+      <c r="C444" s="58"/>
       <c r="J444" s="39"/>
     </row>
     <row r="445" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C445" s="59"/>
+      <c r="C445" s="58"/>
       <c r="J445" s="39"/>
     </row>
     <row r="446" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C446" s="59"/>
+      <c r="C446" s="58"/>
       <c r="J446" s="39"/>
     </row>
     <row r="447" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C447" s="59"/>
+      <c r="C447" s="58"/>
       <c r="J447" s="39"/>
     </row>
     <row r="448" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C448" s="59"/>
+      <c r="C448" s="58"/>
       <c r="J448" s="39"/>
     </row>
     <row r="449" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C449" s="59"/>
+      <c r="C449" s="58"/>
       <c r="J449" s="39"/>
     </row>
     <row r="450" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C450" s="59"/>
+      <c r="C450" s="58"/>
       <c r="J450" s="39"/>
     </row>
     <row r="451" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C451" s="59"/>
+      <c r="C451" s="58"/>
       <c r="J451" s="39"/>
     </row>
     <row r="452" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C452" s="59"/>
+      <c r="C452" s="58"/>
       <c r="J452" s="39"/>
     </row>
     <row r="453" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C453" s="59"/>
+      <c r="C453" s="58"/>
       <c r="J453" s="39"/>
     </row>
     <row r="454" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C454" s="59"/>
+      <c r="C454" s="58"/>
       <c r="J454" s="39"/>
     </row>
     <row r="455" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C455" s="59"/>
+      <c r="C455" s="58"/>
       <c r="J455" s="39"/>
     </row>
     <row r="456" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C456" s="59"/>
+      <c r="C456" s="58"/>
       <c r="J456" s="39"/>
     </row>
     <row r="457" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C457" s="59"/>
+      <c r="C457" s="58"/>
       <c r="J457" s="39"/>
     </row>
     <row r="458" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C458" s="59"/>
+      <c r="C458" s="58"/>
       <c r="J458" s="39"/>
     </row>
     <row r="459" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C459" s="59"/>
+      <c r="C459" s="58"/>
       <c r="J459" s="39"/>
     </row>
     <row r="460" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C460" s="59"/>
+      <c r="C460" s="58"/>
       <c r="J460" s="39"/>
     </row>
     <row r="461" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C461" s="59"/>
+      <c r="C461" s="58"/>
       <c r="J461" s="39"/>
     </row>
     <row r="462" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C462" s="59"/>
+      <c r="C462" s="58"/>
       <c r="J462" s="39"/>
     </row>
     <row r="463" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C463" s="59"/>
+      <c r="C463" s="58"/>
       <c r="J463" s="39"/>
     </row>
     <row r="464" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C464" s="59"/>
+      <c r="C464" s="58"/>
       <c r="J464" s="39"/>
     </row>
     <row r="465" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C465" s="59"/>
+      <c r="C465" s="58"/>
       <c r="J465" s="39"/>
     </row>
     <row r="466" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C466" s="59"/>
+      <c r="C466" s="58"/>
       <c r="J466" s="39"/>
     </row>
     <row r="467" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C467" s="59"/>
+      <c r="C467" s="58"/>
       <c r="J467" s="39"/>
     </row>
     <row r="468" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C468" s="59"/>
+      <c r="C468" s="58"/>
       <c r="J468" s="39"/>
     </row>
     <row r="469" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C469" s="59"/>
+      <c r="C469" s="58"/>
       <c r="J469" s="39"/>
     </row>
     <row r="470" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C470" s="59"/>
+      <c r="C470" s="58"/>
       <c r="J470" s="39"/>
     </row>
     <row r="471" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C471" s="59"/>
+      <c r="C471" s="58"/>
       <c r="J471" s="39"/>
     </row>
     <row r="472" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C472" s="59"/>
+      <c r="C472" s="58"/>
       <c r="J472" s="39"/>
     </row>
     <row r="473" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C473" s="59"/>
+      <c r="C473" s="58"/>
       <c r="J473" s="39"/>
     </row>
     <row r="474" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C474" s="59"/>
+      <c r="C474" s="58"/>
       <c r="J474" s="39"/>
     </row>
     <row r="475" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C475" s="59"/>
+      <c r="C475" s="58"/>
       <c r="J475" s="39"/>
     </row>
     <row r="476" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C476" s="59"/>
+      <c r="C476" s="58"/>
       <c r="J476" s="39"/>
     </row>
     <row r="477" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C477" s="59"/>
+      <c r="C477" s="58"/>
       <c r="J477" s="39"/>
     </row>
     <row r="478" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C478" s="59"/>
+      <c r="C478" s="58"/>
       <c r="J478" s="39"/>
     </row>
     <row r="479" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C479" s="59"/>
+      <c r="C479" s="58"/>
       <c r="J479" s="39"/>
     </row>
     <row r="480" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C480" s="59"/>
+      <c r="C480" s="58"/>
       <c r="J480" s="39"/>
     </row>
     <row r="481" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C481" s="59"/>
+      <c r="C481" s="58"/>
       <c r="J481" s="39"/>
     </row>
     <row r="482" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C482" s="59"/>
+      <c r="C482" s="58"/>
       <c r="J482" s="39"/>
     </row>
     <row r="483" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C483" s="59"/>
+      <c r="C483" s="58"/>
       <c r="J483" s="39"/>
     </row>
     <row r="484" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C484" s="59"/>
+      <c r="C484" s="58"/>
       <c r="J484" s="39"/>
     </row>
     <row r="485" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C485" s="59"/>
+      <c r="C485" s="58"/>
       <c r="J485" s="39"/>
     </row>
     <row r="486" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C486" s="59"/>
+      <c r="C486" s="58"/>
       <c r="J486" s="39"/>
     </row>
     <row r="487" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C487" s="59"/>
+      <c r="C487" s="58"/>
       <c r="J487" s="39"/>
     </row>
     <row r="488" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C488" s="59"/>
+      <c r="C488" s="58"/>
       <c r="J488" s="39"/>
     </row>
     <row r="489" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C489" s="59"/>
+      <c r="C489" s="58"/>
       <c r="J489" s="39"/>
     </row>
     <row r="490" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C490" s="59"/>
+      <c r="C490" s="58"/>
       <c r="J490" s="39"/>
     </row>
     <row r="491" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C491" s="59"/>
+      <c r="C491" s="58"/>
       <c r="J491" s="39"/>
     </row>
     <row r="492" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C492" s="59"/>
+      <c r="C492" s="58"/>
       <c r="J492" s="39"/>
     </row>
     <row r="493" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C493" s="59"/>
+      <c r="C493" s="58"/>
       <c r="J493" s="39"/>
     </row>
     <row r="494" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C494" s="59"/>
+      <c r="C494" s="58"/>
       <c r="J494" s="39"/>
     </row>
     <row r="495" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C495" s="59"/>
+      <c r="C495" s="58"/>
       <c r="J495" s="39"/>
     </row>
     <row r="496" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C496" s="59"/>
+      <c r="C496" s="58"/>
       <c r="J496" s="39"/>
     </row>
     <row r="497" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C497" s="59"/>
+      <c r="C497" s="58"/>
       <c r="J497" s="39"/>
     </row>
     <row r="498" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C498" s="59"/>
+      <c r="C498" s="58"/>
       <c r="J498" s="39"/>
     </row>
     <row r="499" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C499" s="59"/>
+      <c r="C499" s="58"/>
       <c r="J499" s="39"/>
     </row>
     <row r="500" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C500" s="59"/>
+      <c r="C500" s="58"/>
       <c r="J500" s="39"/>
     </row>
     <row r="501" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C501" s="59"/>
+      <c r="C501" s="58"/>
       <c r="J501" s="39"/>
     </row>
     <row r="502" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C502" s="59"/>
+      <c r="C502" s="58"/>
       <c r="J502" s="39"/>
     </row>
     <row r="503" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C503" s="59"/>
+      <c r="C503" s="58"/>
       <c r="J503" s="39"/>
     </row>
     <row r="504" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C504" s="59"/>
+      <c r="C504" s="58"/>
       <c r="J504" s="39"/>
     </row>
     <row r="505" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C505" s="59"/>
+      <c r="C505" s="58"/>
       <c r="J505" s="39"/>
     </row>
     <row r="506" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C506" s="59"/>
+      <c r="C506" s="58"/>
       <c r="J506" s="39"/>
     </row>
     <row r="507" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C507" s="59"/>
+      <c r="C507" s="58"/>
       <c r="J507" s="39"/>
     </row>
     <row r="508" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C508" s="59"/>
+      <c r="C508" s="58"/>
       <c r="J508" s="39"/>
     </row>
     <row r="509" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C509" s="59"/>
+      <c r="C509" s="58"/>
       <c r="J509" s="39"/>
     </row>
     <row r="510" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C510" s="59"/>
+      <c r="C510" s="58"/>
       <c r="J510" s="39"/>
     </row>
     <row r="511" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C511" s="59"/>
+      <c r="C511" s="58"/>
       <c r="J511" s="39"/>
     </row>
     <row r="512" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C512" s="59"/>
+      <c r="C512" s="58"/>
       <c r="J512" s="39"/>
     </row>
     <row r="513" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C513" s="59"/>
+      <c r="C513" s="58"/>
       <c r="J513" s="39"/>
     </row>
     <row r="514" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C514" s="59"/>
+      <c r="C514" s="58"/>
       <c r="J514" s="39"/>
     </row>
     <row r="515" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C515" s="59"/>
+      <c r="C515" s="58"/>
       <c r="J515" s="39"/>
     </row>
     <row r="516" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C516" s="59"/>
+      <c r="C516" s="58"/>
       <c r="J516" s="39"/>
     </row>
     <row r="517" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C517" s="59"/>
+      <c r="C517" s="58"/>
       <c r="J517" s="39"/>
     </row>
     <row r="518" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C518" s="59"/>
+      <c r="C518" s="58"/>
       <c r="J518" s="39"/>
     </row>
     <row r="519" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C519" s="59"/>
+      <c r="C519" s="58"/>
       <c r="J519" s="39"/>
     </row>
     <row r="520" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C520" s="59"/>
+      <c r="C520" s="58"/>
       <c r="J520" s="39"/>
     </row>
     <row r="521" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C521" s="59"/>
+      <c r="C521" s="58"/>
       <c r="J521" s="39"/>
     </row>
     <row r="522" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C522" s="59"/>
+      <c r="C522" s="58"/>
       <c r="J522" s="39"/>
     </row>
     <row r="523" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C523" s="59"/>
+      <c r="C523" s="58"/>
       <c r="J523" s="39"/>
     </row>
     <row r="524" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C524" s="59"/>
+      <c r="C524" s="58"/>
       <c r="J524" s="39"/>
     </row>
     <row r="525" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C525" s="59"/>
+      <c r="C525" s="58"/>
       <c r="J525" s="39"/>
     </row>
     <row r="526" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C526" s="59"/>
+      <c r="C526" s="58"/>
       <c r="J526" s="39"/>
     </row>
     <row r="527" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C527" s="59"/>
+      <c r="C527" s="58"/>
       <c r="J527" s="39"/>
     </row>
     <row r="528" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C528" s="59"/>
+      <c r="C528" s="58"/>
       <c r="J528" s="39"/>
     </row>
     <row r="529" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C529" s="59"/>
+      <c r="C529" s="58"/>
       <c r="J529" s="39"/>
     </row>
     <row r="530" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C530" s="59"/>
+      <c r="C530" s="58"/>
       <c r="J530" s="39"/>
     </row>
     <row r="531" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C531" s="59"/>
+      <c r="C531" s="58"/>
       <c r="J531" s="39"/>
     </row>
     <row r="532" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C532" s="59"/>
+      <c r="C532" s="58"/>
       <c r="J532" s="39"/>
     </row>
     <row r="533" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C533" s="59"/>
+      <c r="C533" s="58"/>
       <c r="J533" s="39"/>
     </row>
     <row r="534" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C534" s="59"/>
+      <c r="C534" s="58"/>
       <c r="J534" s="39"/>
     </row>
     <row r="535" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C535" s="59"/>
+      <c r="C535" s="58"/>
       <c r="J535" s="39"/>
     </row>
     <row r="536" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C536" s="59"/>
+      <c r="C536" s="58"/>
       <c r="J536" s="39"/>
     </row>
     <row r="537" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C537" s="59"/>
+      <c r="C537" s="58"/>
       <c r="J537" s="39"/>
     </row>
     <row r="538" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C538" s="59"/>
+      <c r="C538" s="58"/>
       <c r="J538" s="39"/>
     </row>
     <row r="539" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C539" s="59"/>
+      <c r="C539" s="58"/>
       <c r="J539" s="39"/>
     </row>
     <row r="540" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C540" s="59"/>
+      <c r="C540" s="58"/>
       <c r="J540" s="39"/>
     </row>
     <row r="541" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C541" s="59"/>
+      <c r="C541" s="58"/>
       <c r="J541" s="39"/>
     </row>
     <row r="542" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C542" s="59"/>
+      <c r="C542" s="58"/>
       <c r="J542" s="39"/>
     </row>
     <row r="543" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C543" s="59"/>
+      <c r="C543" s="58"/>
       <c r="J543" s="39"/>
     </row>
     <row r="544" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C544" s="59"/>
+      <c r="C544" s="58"/>
       <c r="J544" s="39"/>
     </row>
     <row r="545" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C545" s="59"/>
+      <c r="C545" s="58"/>
       <c r="J545" s="39"/>
     </row>
     <row r="546" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C546" s="59"/>
+      <c r="C546" s="58"/>
       <c r="J546" s="39"/>
     </row>
     <row r="547" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C547" s="59"/>
+      <c r="C547" s="58"/>
       <c r="J547" s="39"/>
     </row>
     <row r="548" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C548" s="59"/>
+      <c r="C548" s="58"/>
       <c r="J548" s="39"/>
     </row>
     <row r="549" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C549" s="59"/>
+      <c r="C549" s="58"/>
       <c r="J549" s="39"/>
     </row>
     <row r="550" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C550" s="59"/>
+      <c r="C550" s="58"/>
       <c r="J550" s="39"/>
     </row>
     <row r="551" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C551" s="59"/>
+      <c r="C551" s="58"/>
       <c r="J551" s="39"/>
     </row>
     <row r="552" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C552" s="59"/>
+      <c r="C552" s="58"/>
       <c r="J552" s="39"/>
     </row>
     <row r="553" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C553" s="59"/>
+      <c r="C553" s="58"/>
       <c r="J553" s="39"/>
     </row>
     <row r="554" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C554" s="59"/>
+      <c r="C554" s="58"/>
       <c r="J554" s="39"/>
     </row>
     <row r="555" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C555" s="59"/>
+      <c r="C555" s="58"/>
       <c r="J555" s="39"/>
     </row>
     <row r="556" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C556" s="59"/>
+      <c r="C556" s="58"/>
       <c r="J556" s="39"/>
     </row>
     <row r="557" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C557" s="59"/>
+      <c r="C557" s="58"/>
       <c r="J557" s="39"/>
     </row>
     <row r="558" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C558" s="59"/>
+      <c r="C558" s="58"/>
       <c r="J558" s="39"/>
     </row>
     <row r="559" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C559" s="59"/>
+      <c r="C559" s="58"/>
       <c r="J559" s="39"/>
     </row>
     <row r="560" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C560" s="59"/>
+      <c r="C560" s="58"/>
       <c r="J560" s="39"/>
     </row>
     <row r="561" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C561" s="59"/>
+      <c r="C561" s="58"/>
       <c r="J561" s="39"/>
     </row>
     <row r="562" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C562" s="59"/>
+      <c r="C562" s="58"/>
       <c r="J562" s="39"/>
     </row>
     <row r="563" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C563" s="59"/>
+      <c r="C563" s="58"/>
       <c r="J563" s="39"/>
     </row>
     <row r="564" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C564" s="59"/>
+      <c r="C564" s="58"/>
       <c r="J564" s="39"/>
     </row>
     <row r="565" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C565" s="59"/>
+      <c r="C565" s="58"/>
       <c r="J565" s="39"/>
     </row>
     <row r="566" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C566" s="59"/>
+      <c r="C566" s="58"/>
       <c r="J566" s="39"/>
     </row>
     <row r="567" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C567" s="59"/>
+      <c r="C567" s="58"/>
       <c r="J567" s="39"/>
     </row>
     <row r="568" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C568" s="59"/>
+      <c r="C568" s="58"/>
       <c r="J568" s="39"/>
     </row>
     <row r="569" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C569" s="59"/>
+      <c r="C569" s="58"/>
       <c r="J569" s="39"/>
     </row>
     <row r="570" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C570" s="59"/>
+      <c r="C570" s="58"/>
       <c r="J570" s="39"/>
     </row>
     <row r="571" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C571" s="59"/>
+      <c r="C571" s="58"/>
       <c r="J571" s="39"/>
     </row>
     <row r="572" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C572" s="59"/>
+      <c r="C572" s="58"/>
       <c r="J572" s="39"/>
     </row>
     <row r="573" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C573" s="59"/>
+      <c r="C573" s="58"/>
       <c r="J573" s="39"/>
     </row>
     <row r="574" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C574" s="59"/>
+      <c r="C574" s="58"/>
       <c r="J574" s="39"/>
     </row>
     <row r="575" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C575" s="59"/>
+      <c r="C575" s="58"/>
       <c r="J575" s="39"/>
     </row>
     <row r="576" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C576" s="59"/>
+      <c r="C576" s="58"/>
       <c r="J576" s="39"/>
     </row>
     <row r="577" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C577" s="59"/>
+      <c r="C577" s="58"/>
       <c r="J577" s="39"/>
     </row>
     <row r="578" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C578" s="59"/>
+      <c r="C578" s="58"/>
       <c r="J578" s="39"/>
     </row>
     <row r="579" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C579" s="59"/>
+      <c r="C579" s="58"/>
       <c r="J579" s="39"/>
     </row>
     <row r="580" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C580" s="59"/>
+      <c r="C580" s="58"/>
       <c r="J580" s="39"/>
     </row>
     <row r="581" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C581" s="59"/>
+      <c r="C581" s="58"/>
       <c r="J581" s="39"/>
     </row>
     <row r="582" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C582" s="59"/>
+      <c r="C582" s="58"/>
       <c r="J582" s="39"/>
     </row>
     <row r="583" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C583" s="59"/>
+      <c r="C583" s="58"/>
       <c r="J583" s="39"/>
     </row>
     <row r="584" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C584" s="59"/>
+      <c r="C584" s="58"/>
       <c r="J584" s="39"/>
     </row>
     <row r="585" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C585" s="59"/>
+      <c r="C585" s="58"/>
       <c r="J585" s="39"/>
     </row>
     <row r="586" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C586" s="59"/>
+      <c r="C586" s="58"/>
       <c r="J586" s="39"/>
     </row>
     <row r="587" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C587" s="59"/>
+      <c r="C587" s="58"/>
       <c r="J587" s="39"/>
     </row>
     <row r="588" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C588" s="59"/>
+      <c r="C588" s="58"/>
       <c r="J588" s="39"/>
     </row>
     <row r="589" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C589" s="59"/>
+      <c r="C589" s="58"/>
       <c r="J589" s="39"/>
     </row>
     <row r="590" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C590" s="59"/>
+      <c r="C590" s="58"/>
       <c r="J590" s="39"/>
     </row>
     <row r="591" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C591" s="59"/>
+      <c r="C591" s="58"/>
       <c r="J591" s="39"/>
     </row>
     <row r="592" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C592" s="59"/>
+      <c r="C592" s="58"/>
       <c r="J592" s="39"/>
     </row>
     <row r="593" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C593" s="59"/>
+      <c r="C593" s="58"/>
       <c r="J593" s="39"/>
     </row>
     <row r="594" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C594" s="59"/>
+      <c r="C594" s="58"/>
       <c r="J594" s="39"/>
     </row>
     <row r="595" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C595" s="59"/>
+      <c r="C595" s="58"/>
       <c r="J595" s="39"/>
     </row>
     <row r="596" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C596" s="59"/>
+      <c r="C596" s="58"/>
       <c r="J596" s="39"/>
     </row>
     <row r="597" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C597" s="59"/>
+      <c r="C597" s="58"/>
       <c r="J597" s="39"/>
     </row>
     <row r="598" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C598" s="59"/>
+      <c r="C598" s="58"/>
       <c r="J598" s="39"/>
     </row>
     <row r="599" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C599" s="59"/>
+      <c r="C599" s="58"/>
       <c r="J599" s="39"/>
     </row>
     <row r="600" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C600" s="59"/>
+      <c r="C600" s="58"/>
       <c r="J600" s="39"/>
     </row>
     <row r="601" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C601" s="59"/>
+      <c r="C601" s="58"/>
       <c r="J601" s="39"/>
     </row>
     <row r="602" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C602" s="59"/>
+      <c r="C602" s="58"/>
       <c r="J602" s="39"/>
     </row>
     <row r="603" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C603" s="59"/>
+      <c r="C603" s="58"/>
       <c r="J603" s="39"/>
     </row>
     <row r="604" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C604" s="59"/>
+      <c r="C604" s="58"/>
       <c r="J604" s="39"/>
     </row>
     <row r="605" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C605" s="59"/>
+      <c r="C605" s="58"/>
       <c r="J605" s="39"/>
     </row>
     <row r="606" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C606" s="59"/>
+      <c r="C606" s="58"/>
       <c r="J606" s="39"/>
     </row>
     <row r="607" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C607" s="59"/>
+      <c r="C607" s="58"/>
       <c r="J607" s="39"/>
     </row>
     <row r="608" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C608" s="59"/>
+      <c r="C608" s="58"/>
       <c r="J608" s="39"/>
     </row>
     <row r="609" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C609" s="59"/>
+      <c r="C609" s="58"/>
       <c r="J609" s="39"/>
     </row>
     <row r="610" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C610" s="59"/>
+      <c r="C610" s="58"/>
       <c r="J610" s="39"/>
     </row>
     <row r="611" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C611" s="59"/>
+      <c r="C611" s="58"/>
       <c r="J611" s="39"/>
     </row>
     <row r="612" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C612" s="59"/>
+      <c r="C612" s="58"/>
       <c r="J612" s="39"/>
     </row>
     <row r="613" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C613" s="59"/>
+      <c r="C613" s="58"/>
       <c r="J613" s="39"/>
     </row>
     <row r="614" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C614" s="59"/>
+      <c r="C614" s="58"/>
       <c r="J614" s="39"/>
     </row>
     <row r="615" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C615" s="59"/>
+      <c r="C615" s="58"/>
       <c r="J615" s="39"/>
     </row>
     <row r="616" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C616" s="59"/>
+      <c r="C616" s="58"/>
       <c r="J616" s="39"/>
     </row>
     <row r="617" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C617" s="59"/>
+      <c r="C617" s="58"/>
       <c r="J617" s="39"/>
     </row>
     <row r="618" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C618" s="59"/>
+      <c r="C618" s="58"/>
       <c r="J618" s="39"/>
     </row>
     <row r="619" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C619" s="59"/>
+      <c r="C619" s="58"/>
       <c r="J619" s="39"/>
     </row>
     <row r="620" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C620" s="59"/>
+      <c r="C620" s="58"/>
       <c r="J620" s="39"/>
     </row>
     <row r="621" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C621" s="59"/>
+      <c r="C621" s="58"/>
       <c r="J621" s="39"/>
     </row>
     <row r="622" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C622" s="59"/>
+      <c r="C622" s="58"/>
       <c r="J622" s="39"/>
     </row>
     <row r="623" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C623" s="59"/>
+      <c r="C623" s="58"/>
       <c r="J623" s="39"/>
     </row>
     <row r="624" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C624" s="59"/>
+      <c r="C624" s="58"/>
       <c r="J624" s="39"/>
     </row>
     <row r="625" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C625" s="59"/>
+      <c r="C625" s="58"/>
       <c r="J625" s="39"/>
     </row>
     <row r="626" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C626" s="59"/>
+      <c r="C626" s="58"/>
       <c r="J626" s="39"/>
     </row>
     <row r="627" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C627" s="59"/>
+      <c r="C627" s="58"/>
       <c r="J627" s="39"/>
     </row>
     <row r="628" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C628" s="59"/>
+      <c r="C628" s="58"/>
       <c r="J628" s="39"/>
     </row>
     <row r="629" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C629" s="59"/>
+      <c r="C629" s="58"/>
       <c r="J629" s="39"/>
     </row>
     <row r="630" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C630" s="59"/>
+      <c r="C630" s="58"/>
       <c r="J630" s="39"/>
     </row>
     <row r="631" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C631" s="59"/>
+      <c r="C631" s="58"/>
       <c r="J631" s="39"/>
     </row>
     <row r="632" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C632" s="59"/>
+      <c r="C632" s="58"/>
       <c r="J632" s="39"/>
     </row>
     <row r="633" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C633" s="59"/>
+      <c r="C633" s="58"/>
       <c r="J633" s="39"/>
     </row>
     <row r="634" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C634" s="59"/>
+      <c r="C634" s="58"/>
       <c r="J634" s="39"/>
     </row>
     <row r="635" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C635" s="59"/>
+      <c r="C635" s="58"/>
       <c r="J635" s="39"/>
     </row>
     <row r="636" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C636" s="59"/>
+      <c r="C636" s="58"/>
       <c r="J636" s="39"/>
     </row>
     <row r="637" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C637" s="59"/>
+      <c r="C637" s="58"/>
       <c r="J637" s="39"/>
     </row>
     <row r="638" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C638" s="59"/>
+      <c r="C638" s="58"/>
       <c r="J638" s="39"/>
     </row>
     <row r="639" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C639" s="59"/>
+      <c r="C639" s="58"/>
       <c r="J639" s="39"/>
     </row>
     <row r="640" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C640" s="59"/>
+      <c r="C640" s="58"/>
       <c r="J640" s="39"/>
     </row>
     <row r="641" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C641" s="59"/>
+      <c r="C641" s="58"/>
       <c r="J641" s="39"/>
     </row>
     <row r="642" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C642" s="59"/>
+      <c r="C642" s="58"/>
       <c r="J642" s="39"/>
     </row>
     <row r="643" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C643" s="59"/>
+      <c r="C643" s="58"/>
       <c r="J643" s="39"/>
     </row>
     <row r="644" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C644" s="59"/>
+      <c r="C644" s="58"/>
       <c r="J644" s="39"/>
     </row>
     <row r="645" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C645" s="59"/>
+      <c r="C645" s="58"/>
       <c r="J645" s="39"/>
     </row>
     <row r="646" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C646" s="59"/>
+      <c r="C646" s="58"/>
       <c r="J646" s="39"/>
     </row>
     <row r="647" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C647" s="59"/>
+      <c r="C647" s="58"/>
       <c r="J647" s="39"/>
     </row>
     <row r="648" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C648" s="59"/>
+      <c r="C648" s="58"/>
       <c r="J648" s="39"/>
     </row>
     <row r="649" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C649" s="59"/>
+      <c r="C649" s="58"/>
       <c r="J649" s="39"/>
     </row>
     <row r="650" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C650" s="59"/>
+      <c r="C650" s="58"/>
       <c r="J650" s="39"/>
     </row>
     <row r="651" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C651" s="59"/>
+      <c r="C651" s="58"/>
       <c r="J651" s="39"/>
     </row>
     <row r="652" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C652" s="59"/>
+      <c r="C652" s="58"/>
       <c r="J652" s="39"/>
     </row>
     <row r="653" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C653" s="59"/>
+      <c r="C653" s="58"/>
       <c r="J653" s="39"/>
     </row>
     <row r="654" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C654" s="59"/>
+      <c r="C654" s="58"/>
       <c r="J654" s="39"/>
     </row>
     <row r="655" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C655" s="59"/>
+      <c r="C655" s="58"/>
       <c r="J655" s="39"/>
     </row>
     <row r="656" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C656" s="59"/>
+      <c r="C656" s="58"/>
       <c r="J656" s="39"/>
     </row>
     <row r="657" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C657" s="59"/>
+      <c r="C657" s="58"/>
       <c r="J657" s="39"/>
     </row>
     <row r="658" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C658" s="59"/>
+      <c r="C658" s="58"/>
       <c r="J658" s="39"/>
     </row>
     <row r="659" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C659" s="59"/>
+      <c r="C659" s="58"/>
       <c r="J659" s="39"/>
     </row>
     <row r="660" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C660" s="59"/>
+      <c r="C660" s="58"/>
       <c r="J660" s="39"/>
     </row>
     <row r="661" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C661" s="59"/>
+      <c r="C661" s="58"/>
       <c r="J661" s="39"/>
     </row>
     <row r="662" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C662" s="59"/>
+      <c r="C662" s="58"/>
       <c r="J662" s="39"/>
     </row>
     <row r="663" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C663" s="59"/>
+      <c r="C663" s="58"/>
       <c r="J663" s="39"/>
     </row>
     <row r="664" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C664" s="59"/>
+      <c r="C664" s="58"/>
       <c r="J664" s="39"/>
     </row>
     <row r="665" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C665" s="59"/>
+      <c r="C665" s="58"/>
       <c r="J665" s="39"/>
     </row>
     <row r="666" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C666" s="59"/>
+      <c r="C666" s="58"/>
       <c r="J666" s="39"/>
     </row>
     <row r="667" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C667" s="59"/>
+      <c r="C667" s="58"/>
       <c r="J667" s="39"/>
     </row>
     <row r="668" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C668" s="59"/>
+      <c r="C668" s="58"/>
       <c r="J668" s="39"/>
     </row>
     <row r="669" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C669" s="59"/>
+      <c r="C669" s="58"/>
       <c r="J669" s="39"/>
     </row>
     <row r="670" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C670" s="59"/>
+      <c r="C670" s="58"/>
       <c r="J670" s="39"/>
     </row>
     <row r="671" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C671" s="59"/>
+      <c r="C671" s="58"/>
       <c r="J671" s="39"/>
     </row>
     <row r="672" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C672" s="59"/>
+      <c r="C672" s="58"/>
       <c r="J672" s="39"/>
     </row>
     <row r="673" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C673" s="59"/>
+      <c r="C673" s="58"/>
       <c r="J673" s="39"/>
     </row>
     <row r="674" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C674" s="59"/>
+      <c r="C674" s="58"/>
       <c r="J674" s="39"/>
     </row>
     <row r="675" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C675" s="59"/>
+      <c r="C675" s="58"/>
       <c r="J675" s="39"/>
     </row>
     <row r="676" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C676" s="59"/>
+      <c r="C676" s="58"/>
       <c r="J676" s="39"/>
     </row>
     <row r="677" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C677" s="59"/>
+      <c r="C677" s="58"/>
       <c r="J677" s="39"/>
     </row>
     <row r="678" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C678" s="59"/>
+      <c r="C678" s="58"/>
       <c r="J678" s="39"/>
     </row>
     <row r="679" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C679" s="59"/>
+      <c r="C679" s="58"/>
       <c r="J679" s="39"/>
     </row>
     <row r="680" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C680" s="59"/>
+      <c r="C680" s="58"/>
       <c r="J680" s="39"/>
     </row>
     <row r="681" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C681" s="59"/>
+      <c r="C681" s="58"/>
       <c r="J681" s="39"/>
     </row>
     <row r="682" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C682" s="59"/>
+      <c r="C682" s="58"/>
       <c r="J682" s="39"/>
     </row>
     <row r="683" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C683" s="59"/>
+      <c r="C683" s="58"/>
       <c r="J683" s="39"/>
     </row>
     <row r="684" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C684" s="59"/>
+      <c r="C684" s="58"/>
       <c r="J684" s="39"/>
     </row>
     <row r="685" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C685" s="59"/>
+      <c r="C685" s="58"/>
       <c r="J685" s="39"/>
     </row>
     <row r="686" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C686" s="59"/>
+      <c r="C686" s="58"/>
       <c r="J686" s="39"/>
     </row>
     <row r="687" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C687" s="59"/>
+      <c r="C687" s="58"/>
       <c r="J687" s="39"/>
     </row>
     <row r="688" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C688" s="59"/>
+      <c r="C688" s="58"/>
       <c r="J688" s="39"/>
     </row>
     <row r="689" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C689" s="59"/>
+      <c r="C689" s="58"/>
       <c r="J689" s="39"/>
     </row>
     <row r="690" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C690" s="59"/>
+      <c r="C690" s="58"/>
       <c r="J690" s="39"/>
     </row>
     <row r="691" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C691" s="59"/>
+      <c r="C691" s="58"/>
       <c r="J691" s="39"/>
     </row>
     <row r="692" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C692" s="59"/>
+      <c r="C692" s="58"/>
       <c r="J692" s="39"/>
     </row>
     <row r="693" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C693" s="59"/>
+      <c r="C693" s="58"/>
       <c r="J693" s="39"/>
     </row>
     <row r="694" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C694" s="59"/>
+      <c r="C694" s="58"/>
       <c r="J694" s="39"/>
     </row>
     <row r="695" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C695" s="59"/>
+      <c r="C695" s="58"/>
       <c r="J695" s="39"/>
     </row>
     <row r="696" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C696" s="59"/>
+      <c r="C696" s="58"/>
       <c r="J696" s="39"/>
     </row>
     <row r="697" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C697" s="59"/>
+      <c r="C697" s="58"/>
       <c r="J697" s="39"/>
     </row>
     <row r="698" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C698" s="59"/>
+      <c r="C698" s="58"/>
       <c r="J698" s="39"/>
     </row>
     <row r="699" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C699" s="59"/>
+      <c r="C699" s="58"/>
       <c r="J699" s="39"/>
     </row>
     <row r="700" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C700" s="59"/>
+      <c r="C700" s="58"/>
       <c r="J700" s="39"/>
     </row>
     <row r="701" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C701" s="59"/>
+      <c r="C701" s="58"/>
       <c r="J701" s="39"/>
     </row>
     <row r="702" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C702" s="59"/>
+      <c r="C702" s="58"/>
       <c r="J702" s="39"/>
     </row>
     <row r="703" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C703" s="59"/>
+      <c r="C703" s="58"/>
       <c r="J703" s="39"/>
     </row>
     <row r="704" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C704" s="59"/>
+      <c r="C704" s="58"/>
       <c r="J704" s="39"/>
     </row>
     <row r="705" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C705" s="59"/>
+      <c r="C705" s="58"/>
       <c r="J705" s="39"/>
     </row>
     <row r="706" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C706" s="59"/>
+      <c r="C706" s="58"/>
       <c r="J706" s="39"/>
     </row>
     <row r="707" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C707" s="59"/>
+      <c r="C707" s="58"/>
       <c r="J707" s="39"/>
     </row>
     <row r="708" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C708" s="59"/>
+      <c r="C708" s="58"/>
       <c r="J708" s="39"/>
     </row>
     <row r="709" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C709" s="59"/>
+      <c r="C709" s="58"/>
       <c r="J709" s="39"/>
     </row>
     <row r="710" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C710" s="59"/>
+      <c r="C710" s="58"/>
       <c r="J710" s="39"/>
     </row>
     <row r="711" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C711" s="59"/>
+      <c r="C711" s="58"/>
       <c r="J711" s="39"/>
     </row>
     <row r="712" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C712" s="59"/>
+      <c r="C712" s="58"/>
       <c r="J712" s="39"/>
     </row>
     <row r="713" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C713" s="59"/>
+      <c r="C713" s="58"/>
       <c r="J713" s="39"/>
     </row>
     <row r="714" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C714" s="59"/>
+      <c r="C714" s="58"/>
       <c r="J714" s="39"/>
     </row>
     <row r="715" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C715" s="59"/>
+      <c r="C715" s="58"/>
       <c r="J715" s="39"/>
     </row>
     <row r="716" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C716" s="59"/>
+      <c r="C716" s="58"/>
       <c r="J716" s="39"/>
     </row>
     <row r="717" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C717" s="59"/>
+      <c r="C717" s="58"/>
       <c r="J717" s="39"/>
     </row>
     <row r="718" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C718" s="59"/>
+      <c r="C718" s="58"/>
       <c r="J718" s="39"/>
     </row>
     <row r="719" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C719" s="59"/>
+      <c r="C719" s="58"/>
       <c r="J719" s="39"/>
     </row>
     <row r="720" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C720" s="59"/>
+      <c r="C720" s="58"/>
       <c r="J720" s="39"/>
     </row>
     <row r="721" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C721" s="59"/>
+      <c r="C721" s="58"/>
       <c r="J721" s="39"/>
     </row>
     <row r="722" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C722" s="59"/>
+      <c r="C722" s="58"/>
       <c r="J722" s="39"/>
     </row>
     <row r="723" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C723" s="59"/>
+      <c r="C723" s="58"/>
       <c r="J723" s="39"/>
     </row>
     <row r="724" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C724" s="59"/>
+      <c r="C724" s="58"/>
       <c r="J724" s="39"/>
     </row>
     <row r="725" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C725" s="59"/>
+      <c r="C725" s="58"/>
       <c r="J725" s="39"/>
     </row>
     <row r="726" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C726" s="59"/>
+      <c r="C726" s="58"/>
       <c r="J726" s="39"/>
     </row>
     <row r="727" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C727" s="59"/>
+      <c r="C727" s="58"/>
       <c r="J727" s="39"/>
     </row>
     <row r="728" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C728" s="59"/>
+      <c r="C728" s="58"/>
       <c r="J728" s="39"/>
     </row>
     <row r="729" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C729" s="59"/>
+      <c r="C729" s="58"/>
       <c r="J729" s="39"/>
     </row>
     <row r="730" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C730" s="59"/>
+      <c r="C730" s="58"/>
       <c r="J730" s="39"/>
     </row>
     <row r="731" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C731" s="59"/>
+      <c r="C731" s="58"/>
       <c r="J731" s="39"/>
     </row>
     <row r="732" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C732" s="59"/>
+      <c r="C732" s="58"/>
       <c r="J732" s="39"/>
     </row>
     <row r="733" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C733" s="59"/>
+      <c r="C733" s="58"/>
       <c r="J733" s="39"/>
     </row>
     <row r="734" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C734" s="59"/>
+      <c r="C734" s="58"/>
       <c r="J734" s="39"/>
     </row>
     <row r="735" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C735" s="59"/>
+      <c r="C735" s="58"/>
       <c r="J735" s="39"/>
     </row>
     <row r="736" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C736" s="59"/>
+      <c r="C736" s="58"/>
       <c r="J736" s="39"/>
     </row>
     <row r="737" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C737" s="59"/>
+      <c r="C737" s="58"/>
       <c r="J737" s="39"/>
     </row>
     <row r="738" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C738" s="59"/>
+      <c r="C738" s="58"/>
       <c r="J738" s="39"/>
     </row>
     <row r="739" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C739" s="59"/>
+      <c r="C739" s="58"/>
       <c r="J739" s="39"/>
     </row>
     <row r="740" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C740" s="59"/>
+      <c r="C740" s="58"/>
       <c r="J740" s="39"/>
     </row>
     <row r="741" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C741" s="59"/>
+      <c r="C741" s="58"/>
       <c r="J741" s="39"/>
     </row>
     <row r="742" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C742" s="59"/>
+      <c r="C742" s="58"/>
       <c r="J742" s="39"/>
     </row>
     <row r="743" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C743" s="59"/>
+      <c r="C743" s="58"/>
       <c r="J743" s="39"/>
     </row>
     <row r="744" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C744" s="59"/>
+      <c r="C744" s="58"/>
       <c r="J744" s="39"/>
     </row>
     <row r="745" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C745" s="59"/>
+      <c r="C745" s="58"/>
       <c r="J745" s="39"/>
     </row>
     <row r="746" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C746" s="59"/>
+      <c r="C746" s="58"/>
       <c r="J746" s="39"/>
     </row>
     <row r="747" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C747" s="59"/>
+      <c r="C747" s="58"/>
       <c r="J747" s="39"/>
     </row>
     <row r="748" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C748" s="59"/>
+      <c r="C748" s="58"/>
       <c r="J748" s="39"/>
     </row>
     <row r="749" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C749" s="59"/>
+      <c r="C749" s="58"/>
       <c r="J749" s="39"/>
     </row>
     <row r="750" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C750" s="59"/>
+      <c r="C750" s="58"/>
       <c r="J750" s="39"/>
     </row>
     <row r="751" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C751" s="59"/>
+      <c r="C751" s="58"/>
       <c r="J751" s="39"/>
     </row>
     <row r="752" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C752" s="59"/>
+      <c r="C752" s="58"/>
       <c r="J752" s="39"/>
     </row>
     <row r="753" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C753" s="59"/>
+      <c r="C753" s="58"/>
       <c r="J753" s="39"/>
     </row>
     <row r="754" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C754" s="59"/>
+      <c r="C754" s="58"/>
       <c r="J754" s="39"/>
     </row>
     <row r="755" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C755" s="59"/>
+      <c r="C755" s="58"/>
       <c r="J755" s="39"/>
     </row>
     <row r="756" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C756" s="59"/>
+      <c r="C756" s="58"/>
       <c r="J756" s="39"/>
     </row>
     <row r="757" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C757" s="59"/>
+      <c r="C757" s="58"/>
       <c r="J757" s="39"/>
     </row>
     <row r="758" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C758" s="59"/>
+      <c r="C758" s="58"/>
       <c r="J758" s="39"/>
     </row>
     <row r="759" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C759" s="59"/>
+      <c r="C759" s="58"/>
       <c r="J759" s="39"/>
     </row>
     <row r="760" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C760" s="59"/>
+      <c r="C760" s="58"/>
       <c r="J760" s="39"/>
     </row>
     <row r="761" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C761" s="59"/>
+      <c r="C761" s="58"/>
       <c r="J761" s="39"/>
     </row>
     <row r="762" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C762" s="59"/>
+      <c r="C762" s="58"/>
       <c r="J762" s="39"/>
     </row>
     <row r="763" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C763" s="59"/>
+      <c r="C763" s="58"/>
       <c r="J763" s="39"/>
     </row>
     <row r="764" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C764" s="59"/>
+      <c r="C764" s="58"/>
       <c r="J764" s="39"/>
     </row>
     <row r="765" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C765" s="59"/>
+      <c r="C765" s="58"/>
       <c r="J765" s="39"/>
     </row>
     <row r="766" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C766" s="59"/>
+      <c r="C766" s="58"/>
       <c r="J766" s="39"/>
     </row>
     <row r="767" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C767" s="59"/>
+      <c r="C767" s="58"/>
       <c r="J767" s="39"/>
     </row>
     <row r="768" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C768" s="59"/>
+      <c r="C768" s="58"/>
       <c r="J768" s="39"/>
     </row>
     <row r="769" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C769" s="59"/>
+      <c r="C769" s="58"/>
       <c r="J769" s="39"/>
     </row>
     <row r="770" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C770" s="59"/>
+      <c r="C770" s="58"/>
       <c r="J770" s="39"/>
     </row>
     <row r="771" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C771" s="59"/>
+      <c r="C771" s="58"/>
       <c r="J771" s="39"/>
     </row>
     <row r="772" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C772" s="59"/>
+      <c r="C772" s="58"/>
       <c r="J772" s="39"/>
     </row>
     <row r="773" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C773" s="59"/>
+      <c r="C773" s="58"/>
       <c r="J773" s="39"/>
     </row>
     <row r="774" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C774" s="59"/>
+      <c r="C774" s="58"/>
       <c r="J774" s="39"/>
     </row>
     <row r="775" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C775" s="59"/>
+      <c r="C775" s="58"/>
       <c r="J775" s="39"/>
     </row>
     <row r="776" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C776" s="59"/>
+      <c r="C776" s="58"/>
       <c r="J776" s="39"/>
     </row>
     <row r="777" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C777" s="59"/>
+      <c r="C777" s="58"/>
       <c r="J777" s="39"/>
     </row>
     <row r="778" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C778" s="59"/>
+      <c r="C778" s="58"/>
       <c r="J778" s="39"/>
     </row>
     <row r="779" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C779" s="59"/>
+      <c r="C779" s="58"/>
       <c r="J779" s="39"/>
     </row>
     <row r="780" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C780" s="59"/>
+      <c r="C780" s="58"/>
       <c r="J780" s="39"/>
     </row>
     <row r="781" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C781" s="59"/>
+      <c r="C781" s="58"/>
       <c r="J781" s="39"/>
     </row>
     <row r="782" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C782" s="59"/>
+      <c r="C782" s="58"/>
       <c r="J782" s="39"/>
     </row>
     <row r="783" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C783" s="59"/>
+      <c r="C783" s="58"/>
       <c r="J783" s="39"/>
     </row>
     <row r="784" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C784" s="59"/>
+      <c r="C784" s="58"/>
       <c r="J784" s="39"/>
     </row>
     <row r="785" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C785" s="59"/>
+      <c r="C785" s="58"/>
       <c r="J785" s="39"/>
     </row>
     <row r="786" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C786" s="59"/>
+      <c r="C786" s="58"/>
       <c r="J786" s="39"/>
     </row>
     <row r="787" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C787" s="59"/>
+      <c r="C787" s="58"/>
       <c r="J787" s="39"/>
     </row>
     <row r="788" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C788" s="59"/>
+      <c r="C788" s="58"/>
       <c r="J788" s="39"/>
     </row>
     <row r="789" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C789" s="59"/>
+      <c r="C789" s="58"/>
       <c r="J789" s="39"/>
     </row>
     <row r="790" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C790" s="59"/>
+      <c r="C790" s="58"/>
       <c r="J790" s="39"/>
     </row>
     <row r="791" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C791" s="59"/>
+      <c r="C791" s="58"/>
       <c r="J791" s="39"/>
     </row>
     <row r="792" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C792" s="59"/>
+      <c r="C792" s="58"/>
       <c r="J792" s="39"/>
     </row>
     <row r="793" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C793" s="59"/>
+      <c r="C793" s="58"/>
       <c r="J793" s="39"/>
     </row>
     <row r="794" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C794" s="59"/>
+      <c r="C794" s="58"/>
       <c r="J794" s="39"/>
     </row>
     <row r="795" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C795" s="59"/>
+      <c r="C795" s="58"/>
       <c r="J795" s="39"/>
     </row>
     <row r="796" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C796" s="59"/>
+      <c r="C796" s="58"/>
       <c r="J796" s="39"/>
     </row>
     <row r="797" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C797" s="59"/>
+      <c r="C797" s="58"/>
       <c r="J797" s="39"/>
     </row>
     <row r="798" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C798" s="59"/>
+      <c r="C798" s="58"/>
       <c r="J798" s="39"/>
     </row>
     <row r="799" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C799" s="59"/>
+      <c r="C799" s="58"/>
       <c r="J799" s="39"/>
     </row>
     <row r="800" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C800" s="59"/>
+      <c r="C800" s="58"/>
       <c r="J800" s="39"/>
     </row>
     <row r="801" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C801" s="59"/>
+      <c r="C801" s="58"/>
       <c r="J801" s="39"/>
     </row>
     <row r="802" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C802" s="59"/>
+      <c r="C802" s="58"/>
       <c r="J802" s="39"/>
     </row>
     <row r="803" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C803" s="59"/>
+      <c r="C803" s="58"/>
       <c r="J803" s="39"/>
     </row>
     <row r="804" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C804" s="59"/>
+      <c r="C804" s="58"/>
       <c r="J804" s="39"/>
     </row>
     <row r="805" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C805" s="59"/>
+      <c r="C805" s="58"/>
       <c r="J805" s="39"/>
     </row>
     <row r="806" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C806" s="59"/>
+      <c r="C806" s="58"/>
       <c r="J806" s="39"/>
     </row>
     <row r="807" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C807" s="59"/>
+      <c r="C807" s="58"/>
       <c r="J807" s="39"/>
     </row>
     <row r="808" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C808" s="59"/>
+      <c r="C808" s="58"/>
       <c r="J808" s="39"/>
     </row>
     <row r="809" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C809" s="59"/>
+      <c r="C809" s="58"/>
       <c r="J809" s="39"/>
     </row>
     <row r="810" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C810" s="59"/>
+      <c r="C810" s="58"/>
       <c r="J810" s="39"/>
     </row>
     <row r="811" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C811" s="59"/>
+      <c r="C811" s="58"/>
       <c r="J811" s="39"/>
     </row>
     <row r="812" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C812" s="59"/>
+      <c r="C812" s="58"/>
       <c r="J812" s="39"/>
     </row>
     <row r="813" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C813" s="59"/>
+      <c r="C813" s="58"/>
       <c r="J813" s="39"/>
     </row>
     <row r="814" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C814" s="59"/>
+      <c r="C814" s="58"/>
       <c r="J814" s="39"/>
     </row>
     <row r="815" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C815" s="59"/>
+      <c r="C815" s="58"/>
       <c r="J815" s="39"/>
     </row>
     <row r="816" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C816" s="59"/>
+      <c r="C816" s="58"/>
       <c r="J816" s="39"/>
     </row>
     <row r="817" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C817" s="59"/>
+      <c r="C817" s="58"/>
       <c r="J817" s="39"/>
     </row>
     <row r="818" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C818" s="59"/>
+      <c r="C818" s="58"/>
       <c r="J818" s="39"/>
     </row>
     <row r="819" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C819" s="59"/>
+      <c r="C819" s="58"/>
       <c r="J819" s="39"/>
     </row>
     <row r="820" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C820" s="59"/>
+      <c r="C820" s="58"/>
       <c r="J820" s="39"/>
     </row>
     <row r="821" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C821" s="59"/>
+      <c r="C821" s="58"/>
       <c r="J821" s="39"/>
     </row>
     <row r="822" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C822" s="59"/>
+      <c r="C822" s="58"/>
       <c r="J822" s="39"/>
     </row>
     <row r="823" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C823" s="59"/>
+      <c r="C823" s="58"/>
       <c r="J823" s="39"/>
     </row>
     <row r="824" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C824" s="59"/>
+      <c r="C824" s="58"/>
       <c r="J824" s="39"/>
     </row>
     <row r="825" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C825" s="59"/>
+      <c r="C825" s="58"/>
       <c r="J825" s="39"/>
     </row>
     <row r="826" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C826" s="59"/>
+      <c r="C826" s="58"/>
       <c r="J826" s="39"/>
     </row>
     <row r="827" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C827" s="59"/>
+      <c r="C827" s="58"/>
       <c r="J827" s="39"/>
     </row>
     <row r="828" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C828" s="59"/>
+      <c r="C828" s="58"/>
       <c r="J828" s="39"/>
     </row>
     <row r="829" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C829" s="59"/>
+      <c r="C829" s="58"/>
       <c r="J829" s="39"/>
     </row>
     <row r="830" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C830" s="59"/>
+      <c r="C830" s="58"/>
       <c r="J830" s="39"/>
     </row>
     <row r="831" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C831" s="59"/>
+      <c r="C831" s="58"/>
       <c r="J831" s="39"/>
     </row>
     <row r="832" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C832" s="59"/>
+      <c r="C832" s="58"/>
       <c r="J832" s="39"/>
     </row>
     <row r="833" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C833" s="59"/>
+      <c r="C833" s="58"/>
       <c r="J833" s="39"/>
     </row>
     <row r="834" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C834" s="59"/>
+      <c r="C834" s="58"/>
       <c r="J834" s="39"/>
     </row>
     <row r="835" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C835" s="59"/>
+      <c r="C835" s="58"/>
       <c r="J835" s="39"/>
     </row>
     <row r="836" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C836" s="59"/>
+      <c r="C836" s="58"/>
       <c r="J836" s="39"/>
     </row>
     <row r="837" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C837" s="59"/>
+      <c r="C837" s="58"/>
       <c r="J837" s="39"/>
     </row>
     <row r="838" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C838" s="59"/>
+      <c r="C838" s="58"/>
       <c r="J838" s="39"/>
     </row>
     <row r="839" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C839" s="59"/>
+      <c r="C839" s="58"/>
       <c r="J839" s="39"/>
     </row>
     <row r="840" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C840" s="59"/>
+      <c r="C840" s="58"/>
       <c r="J840" s="39"/>
     </row>
     <row r="841" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C841" s="59"/>
+      <c r="C841" s="58"/>
       <c r="J841" s="39"/>
     </row>
     <row r="842" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C842" s="59"/>
+      <c r="C842" s="58"/>
       <c r="J842" s="39"/>
     </row>
     <row r="843" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C843" s="59"/>
+      <c r="C843" s="58"/>
       <c r="J843" s="39"/>
     </row>
     <row r="844" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C844" s="59"/>
+      <c r="C844" s="58"/>
       <c r="J844" s="39"/>
     </row>
     <row r="845" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C845" s="59"/>
+      <c r="C845" s="58"/>
       <c r="J845" s="39"/>
     </row>
     <row r="846" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C846" s="59"/>
+      <c r="C846" s="58"/>
       <c r="J846" s="39"/>
     </row>
     <row r="847" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C847" s="59"/>
+      <c r="C847" s="58"/>
       <c r="J847" s="39"/>
     </row>
     <row r="848" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C848" s="59"/>
+      <c r="C848" s="58"/>
       <c r="J848" s="39"/>
     </row>
     <row r="849" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C849" s="59"/>
+      <c r="C849" s="58"/>
       <c r="J849" s="39"/>
     </row>
     <row r="850" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C850" s="59"/>
+      <c r="C850" s="58"/>
       <c r="J850" s="39"/>
     </row>
     <row r="851" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C851" s="59"/>
+      <c r="C851" s="58"/>
       <c r="J851" s="39"/>
     </row>
     <row r="852" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C852" s="59"/>
+      <c r="C852" s="58"/>
       <c r="J852" s="39"/>
     </row>
     <row r="853" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C853" s="59"/>
+      <c r="C853" s="58"/>
       <c r="J853" s="39"/>
     </row>
     <row r="854" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C854" s="59"/>
+      <c r="C854" s="58"/>
       <c r="J854" s="39"/>
     </row>
     <row r="855" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C855" s="59"/>
+      <c r="C855" s="58"/>
       <c r="J855" s="39"/>
     </row>
     <row r="856" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C856" s="59"/>
+      <c r="C856" s="58"/>
       <c r="J856" s="39"/>
     </row>
     <row r="857" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C857" s="59"/>
+      <c r="C857" s="58"/>
       <c r="J857" s="39"/>
     </row>
     <row r="858" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C858" s="59"/>
+      <c r="C858" s="58"/>
       <c r="J858" s="39"/>
     </row>
     <row r="859" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C859" s="59"/>
+      <c r="C859" s="58"/>
       <c r="J859" s="39"/>
     </row>
     <row r="860" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C860" s="59"/>
+      <c r="C860" s="58"/>
       <c r="J860" s="39"/>
     </row>
     <row r="861" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C861" s="59"/>
+      <c r="C861" s="58"/>
       <c r="J861" s="39"/>
     </row>
     <row r="862" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C862" s="59"/>
+      <c r="C862" s="58"/>
       <c r="J862" s="39"/>
     </row>
     <row r="863" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C863" s="59"/>
+      <c r="C863" s="58"/>
       <c r="J863" s="39"/>
     </row>
     <row r="864" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C864" s="59"/>
+      <c r="C864" s="58"/>
       <c r="J864" s="39"/>
     </row>
     <row r="865" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C865" s="59"/>
+      <c r="C865" s="58"/>
       <c r="J865" s="39"/>
     </row>
     <row r="866" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C866" s="59"/>
+      <c r="C866" s="58"/>
       <c r="J866" s="39"/>
     </row>
     <row r="867" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C867" s="59"/>
+      <c r="C867" s="58"/>
       <c r="J867" s="39"/>
     </row>
     <row r="868" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C868" s="59"/>
+      <c r="C868" s="58"/>
       <c r="J868" s="39"/>
     </row>
     <row r="869" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C869" s="59"/>
+      <c r="C869" s="58"/>
       <c r="J869" s="39"/>
     </row>
     <row r="870" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C870" s="59"/>
+      <c r="C870" s="58"/>
       <c r="J870" s="39"/>
     </row>
     <row r="871" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C871" s="59"/>
+      <c r="C871" s="58"/>
       <c r="J871" s="39"/>
     </row>
     <row r="872" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C872" s="59"/>
+      <c r="C872" s="58"/>
       <c r="J872" s="39"/>
     </row>
     <row r="873" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C873" s="59"/>
+      <c r="C873" s="58"/>
       <c r="J873" s="39"/>
     </row>
     <row r="874" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C874" s="59"/>
+      <c r="C874" s="58"/>
       <c r="J874" s="39"/>
     </row>
     <row r="875" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C875" s="59"/>
+      <c r="C875" s="58"/>
       <c r="J875" s="39"/>
     </row>
     <row r="876" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C876" s="59"/>
+      <c r="C876" s="58"/>
       <c r="J876" s="39"/>
     </row>
     <row r="877" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C877" s="59"/>
+      <c r="C877" s="58"/>
       <c r="J877" s="39"/>
     </row>
     <row r="878" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C878" s="59"/>
+      <c r="C878" s="58"/>
       <c r="J878" s="39"/>
     </row>
     <row r="879" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C879" s="59"/>
+      <c r="C879" s="58"/>
       <c r="J879" s="39"/>
     </row>
     <row r="880" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C880" s="59"/>
+      <c r="C880" s="58"/>
       <c r="J880" s="39"/>
     </row>
     <row r="881" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C881" s="59"/>
+      <c r="C881" s="58"/>
       <c r="J881" s="39"/>
     </row>
     <row r="882" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C882" s="59"/>
+      <c r="C882" s="58"/>
       <c r="J882" s="39"/>
     </row>
     <row r="883" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C883" s="59"/>
+      <c r="C883" s="58"/>
       <c r="J883" s="39"/>
     </row>
     <row r="884" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C884" s="59"/>
+      <c r="C884" s="58"/>
       <c r="J884" s="39"/>
     </row>
     <row r="885" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C885" s="59"/>
+      <c r="C885" s="58"/>
       <c r="J885" s="39"/>
     </row>
     <row r="886" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C886" s="59"/>
+      <c r="C886" s="58"/>
       <c r="J886" s="39"/>
     </row>
     <row r="887" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C887" s="59"/>
+      <c r="C887" s="58"/>
       <c r="J887" s="39"/>
     </row>
     <row r="888" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C888" s="59"/>
+      <c r="C888" s="58"/>
       <c r="J888" s="39"/>
     </row>
     <row r="889" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C889" s="59"/>
+      <c r="C889" s="58"/>
       <c r="J889" s="39"/>
     </row>
     <row r="890" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C890" s="59"/>
+      <c r="C890" s="58"/>
       <c r="J890" s="39"/>
     </row>
     <row r="891" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C891" s="59"/>
+      <c r="C891" s="58"/>
       <c r="J891" s="39"/>
     </row>
     <row r="892" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C892" s="59"/>
+      <c r="C892" s="58"/>
       <c r="J892" s="39"/>
     </row>
     <row r="893" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C893" s="59"/>
+      <c r="C893" s="58"/>
       <c r="J893" s="39"/>
     </row>
     <row r="894" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C894" s="59"/>
+      <c r="C894" s="58"/>
       <c r="J894" s="39"/>
     </row>
     <row r="895" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C895" s="59"/>
+      <c r="C895" s="58"/>
       <c r="J895" s="39"/>
     </row>
     <row r="896" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C896" s="59"/>
+      <c r="C896" s="58"/>
       <c r="J896" s="39"/>
     </row>
     <row r="897" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C897" s="59"/>
+      <c r="C897" s="58"/>
       <c r="J897" s="39"/>
     </row>
     <row r="898" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C898" s="59"/>
+      <c r="C898" s="58"/>
       <c r="J898" s="39"/>
     </row>
     <row r="899" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C899" s="59"/>
+      <c r="C899" s="58"/>
       <c r="J899" s="39"/>
     </row>
     <row r="900" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C900" s="59"/>
+      <c r="C900" s="58"/>
       <c r="J900" s="39"/>
     </row>
     <row r="901" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C901" s="59"/>
+      <c r="C901" s="58"/>
       <c r="J901" s="39"/>
     </row>
     <row r="902" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C902" s="59"/>
+      <c r="C902" s="58"/>
       <c r="J902" s="39"/>
     </row>
     <row r="903" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C903" s="59"/>
+      <c r="C903" s="58"/>
       <c r="J903" s="39"/>
     </row>
     <row r="904" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C904" s="59"/>
+      <c r="C904" s="58"/>
       <c r="J904" s="39"/>
     </row>
     <row r="905" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C905" s="59"/>
+      <c r="C905" s="58"/>
       <c r="J905" s="39"/>
     </row>
     <row r="906" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C906" s="59"/>
+      <c r="C906" s="58"/>
       <c r="J906" s="39"/>
     </row>
     <row r="907" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C907" s="59"/>
+      <c r="C907" s="58"/>
       <c r="J907" s="39"/>
     </row>
     <row r="908" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C908" s="59"/>
+      <c r="C908" s="58"/>
       <c r="J908" s="39"/>
     </row>
     <row r="909" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C909" s="59"/>
+      <c r="C909" s="58"/>
       <c r="J909" s="39"/>
     </row>
     <row r="910" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C910" s="59"/>
+      <c r="C910" s="58"/>
       <c r="J910" s="39"/>
     </row>
     <row r="911" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C911" s="59"/>
+      <c r="C911" s="58"/>
       <c r="J911" s="39"/>
     </row>
     <row r="912" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C912" s="59"/>
+      <c r="C912" s="58"/>
       <c r="J912" s="39"/>
     </row>
     <row r="913" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C913" s="59"/>
+      <c r="C913" s="58"/>
       <c r="J913" s="39"/>
     </row>
     <row r="914" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C914" s="59"/>
+      <c r="C914" s="58"/>
       <c r="J914" s="39"/>
     </row>
     <row r="915" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C915" s="59"/>
+      <c r="C915" s="58"/>
       <c r="J915" s="39"/>
     </row>
     <row r="916" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C916" s="59"/>
+      <c r="C916" s="58"/>
       <c r="J916" s="39"/>
     </row>
     <row r="917" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C917" s="59"/>
+      <c r="C917" s="58"/>
       <c r="J917" s="39"/>
     </row>
     <row r="918" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C918" s="59"/>
+      <c r="C918" s="58"/>
       <c r="J918" s="39"/>
     </row>
     <row r="919" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C919" s="59"/>
+      <c r="C919" s="58"/>
       <c r="J919" s="39"/>
     </row>
     <row r="920" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C920" s="59"/>
+      <c r="C920" s="58"/>
       <c r="J920" s="39"/>
     </row>
     <row r="921" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C921" s="59"/>
+      <c r="C921" s="58"/>
       <c r="J921" s="39"/>
     </row>
     <row r="922" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C922" s="59"/>
+      <c r="C922" s="58"/>
       <c r="J922" s="39"/>
     </row>
     <row r="923" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C923" s="59"/>
+      <c r="C923" s="58"/>
       <c r="J923" s="39"/>
     </row>
     <row r="924" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C924" s="59"/>
+      <c r="C924" s="58"/>
       <c r="J924" s="39"/>
     </row>
     <row r="925" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C925" s="59"/>
+      <c r="C925" s="58"/>
       <c r="J925" s="39"/>
     </row>
     <row r="926" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C926" s="59"/>
+      <c r="C926" s="58"/>
       <c r="J926" s="39"/>
     </row>
     <row r="927" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C927" s="59"/>
+      <c r="C927" s="58"/>
       <c r="J927" s="39"/>
     </row>
     <row r="928" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C928" s="59"/>
+      <c r="C928" s="58"/>
       <c r="J928" s="39"/>
     </row>
     <row r="929" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C929" s="59"/>
+      <c r="C929" s="58"/>
       <c r="J929" s="39"/>
     </row>
     <row r="930" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C930" s="59"/>
+      <c r="C930" s="58"/>
       <c r="J930" s="39"/>
     </row>
     <row r="931" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C931" s="59"/>
+      <c r="C931" s="58"/>
       <c r="J931" s="39"/>
     </row>
     <row r="932" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C932" s="59"/>
+      <c r="C932" s="58"/>
       <c r="J932" s="39"/>
     </row>
     <row r="933" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C933" s="59"/>
+      <c r="C933" s="58"/>
       <c r="J933" s="39"/>
     </row>
     <row r="934" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C934" s="59"/>
+      <c r="C934" s="58"/>
       <c r="J934" s="39"/>
     </row>
     <row r="935" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C935" s="59"/>
+      <c r="C935" s="58"/>
       <c r="J935" s="39"/>
     </row>
     <row r="936" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C936" s="59"/>
+      <c r="C936" s="58"/>
       <c r="J936" s="39"/>
     </row>
     <row r="937" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C937" s="59"/>
+      <c r="C937" s="58"/>
       <c r="J937" s="39"/>
     </row>
     <row r="938" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C938" s="59"/>
+      <c r="C938" s="58"/>
       <c r="J938" s="39"/>
     </row>
     <row r="939" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C939" s="59"/>
+      <c r="C939" s="58"/>
       <c r="J939" s="39"/>
     </row>
     <row r="940" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C940" s="59"/>
+      <c r="C940" s="58"/>
       <c r="J940" s="39"/>
     </row>
     <row r="941" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C941" s="59"/>
+      <c r="C941" s="58"/>
       <c r="J941" s="39"/>
     </row>
     <row r="942" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C942" s="59"/>
+      <c r="C942" s="58"/>
       <c r="J942" s="39"/>
     </row>
     <row r="943" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C943" s="59"/>
+      <c r="C943" s="58"/>
       <c r="J943" s="39"/>
     </row>
     <row r="944" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C944" s="59"/>
+      <c r="C944" s="58"/>
       <c r="J944" s="39"/>
     </row>
     <row r="945" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C945" s="59"/>
+      <c r="C945" s="58"/>
       <c r="J945" s="39"/>
     </row>
     <row r="946" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C946" s="59"/>
+      <c r="C946" s="58"/>
       <c r="J946" s="39"/>
     </row>
     <row r="947" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C947" s="59"/>
+      <c r="C947" s="58"/>
       <c r="J947" s="39"/>
     </row>
     <row r="948" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C948" s="59"/>
+      <c r="C948" s="58"/>
       <c r="J948" s="39"/>
     </row>
     <row r="949" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C949" s="59"/>
+      <c r="C949" s="58"/>
       <c r="J949" s="39"/>
     </row>
     <row r="950" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C950" s="59"/>
+      <c r="C950" s="58"/>
       <c r="J950" s="39"/>
     </row>
     <row r="951" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C951" s="59"/>
+      <c r="C951" s="58"/>
       <c r="J951" s="39"/>
     </row>
     <row r="952" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C952" s="59"/>
+      <c r="C952" s="58"/>
       <c r="J952" s="39"/>
     </row>
     <row r="953" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C953" s="59"/>
+      <c r="C953" s="58"/>
       <c r="J953" s="39"/>
     </row>
     <row r="954" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C954" s="59"/>
+      <c r="C954" s="58"/>
       <c r="J954" s="39"/>
     </row>
     <row r="955" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C955" s="59"/>
+      <c r="C955" s="58"/>
       <c r="J955" s="39"/>
     </row>
     <row r="956" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C956" s="59"/>
+      <c r="C956" s="58"/>
       <c r="J956" s="39"/>
     </row>
     <row r="957" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C957" s="59"/>
+      <c r="C957" s="58"/>
       <c r="J957" s="39"/>
     </row>
     <row r="958" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C958" s="59"/>
+      <c r="C958" s="58"/>
       <c r="J958" s="39"/>
     </row>
     <row r="959" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C959" s="59"/>
+      <c r="C959" s="58"/>
       <c r="J959" s="39"/>
     </row>
     <row r="960" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C960" s="59"/>
+      <c r="C960" s="58"/>
       <c r="J960" s="39"/>
     </row>
     <row r="961" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C961" s="59"/>
+      <c r="C961" s="58"/>
       <c r="J961" s="39"/>
     </row>
     <row r="962" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C962" s="59"/>
+      <c r="C962" s="58"/>
       <c r="J962" s="39"/>
     </row>
     <row r="963" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C963" s="59"/>
+      <c r="C963" s="58"/>
       <c r="J963" s="39"/>
     </row>
     <row r="964" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C964" s="59"/>
+      <c r="C964" s="58"/>
       <c r="J964" s="39"/>
     </row>
     <row r="965" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C965" s="59"/>
+      <c r="C965" s="58"/>
       <c r="J965" s="39"/>
     </row>
     <row r="966" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C966" s="59"/>
+      <c r="C966" s="58"/>
       <c r="J966" s="39"/>
     </row>
     <row r="967" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C967" s="59"/>
+      <c r="C967" s="58"/>
       <c r="J967" s="39"/>
     </row>
     <row r="968" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C968" s="59"/>
+      <c r="C968" s="58"/>
       <c r="J968" s="39"/>
     </row>
     <row r="969" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C969" s="59"/>
+      <c r="C969" s="58"/>
       <c r="J969" s="39"/>
     </row>
     <row r="970" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C970" s="59"/>
+      <c r="C970" s="58"/>
       <c r="J970" s="39"/>
     </row>
     <row r="971" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C971" s="59"/>
+      <c r="C971" s="58"/>
       <c r="J971" s="39"/>
     </row>
     <row r="972" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C972" s="59"/>
+      <c r="C972" s="58"/>
       <c r="J972" s="39"/>
     </row>
     <row r="973" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C973" s="59"/>
+      <c r="C973" s="58"/>
       <c r="J973" s="39"/>
     </row>
     <row r="974" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C974" s="59"/>
+      <c r="C974" s="58"/>
       <c r="J974" s="39"/>
     </row>
     <row r="975" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C975" s="59"/>
+      <c r="C975" s="58"/>
       <c r="J975" s="39"/>
     </row>
     <row r="976" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C976" s="59"/>
+      <c r="C976" s="58"/>
       <c r="J976" s="39"/>
     </row>
     <row r="977" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C977" s="59"/>
+      <c r="C977" s="58"/>
       <c r="J977" s="39"/>
     </row>
     <row r="978" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C978" s="59"/>
+      <c r="C978" s="58"/>
       <c r="J978" s="39"/>
     </row>
     <row r="979" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C979" s="59"/>
+      <c r="C979" s="58"/>
       <c r="J979" s="39"/>
     </row>
     <row r="980" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C980" s="59"/>
+      <c r="C980" s="58"/>
       <c r="J980" s="39"/>
     </row>
     <row r="981" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C981" s="59"/>
+      <c r="C981" s="58"/>
       <c r="J981" s="39"/>
     </row>
     <row r="982" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C982" s="59"/>
+      <c r="C982" s="58"/>
       <c r="J982" s="39"/>
     </row>
     <row r="983" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C983" s="59"/>
+      <c r="C983" s="58"/>
       <c r="J983" s="39"/>
     </row>
     <row r="984" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C984" s="59"/>
+      <c r="C984" s="58"/>
       <c r="J984" s="39"/>
     </row>
     <row r="985" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C985" s="59"/>
+      <c r="C985" s="58"/>
       <c r="J985" s="39"/>
     </row>
     <row r="986" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C986" s="59"/>
+      <c r="C986" s="58"/>
       <c r="J986" s="39"/>
     </row>
     <row r="987" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C987" s="59"/>
+      <c r="C987" s="58"/>
       <c r="J987" s="39"/>
     </row>
     <row r="988" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C988" s="59"/>
+      <c r="C988" s="58"/>
       <c r="J988" s="39"/>
     </row>
     <row r="989" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C989" s="59"/>
+      <c r="C989" s="58"/>
       <c r="J989" s="39"/>
     </row>
     <row r="990" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C990" s="59"/>
+      <c r="C990" s="58"/>
       <c r="J990" s="39"/>
     </row>
     <row r="991" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C991" s="59"/>
+      <c r="C991" s="58"/>
       <c r="J991" s="39"/>
     </row>
     <row r="992" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C992" s="59"/>
+      <c r="C992" s="58"/>
       <c r="J992" s="39"/>
     </row>
     <row r="993" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C993" s="59"/>
+      <c r="C993" s="58"/>
       <c r="J993" s="39"/>
     </row>
     <row r="994" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C994" s="59"/>
+      <c r="C994" s="58"/>
       <c r="J994" s="39"/>
     </row>
     <row r="995" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C995" s="59"/>
+      <c r="C995" s="58"/>
       <c r="J995" s="39"/>
     </row>
     <row r="996" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C996" s="59"/>
+      <c r="C996" s="58"/>
       <c r="J996" s="39"/>
     </row>
     <row r="997" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C997" s="59"/>
+      <c r="C997" s="58"/>
       <c r="J997" s="39"/>
     </row>
   </sheetData>

--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31DF8D-0AF4-8E43-BB44-7D3600D0DCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A94A1D-F28E-0948-A87B-21CBCE9E1458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
   <si>
     <t>Initials</t>
   </si>
@@ -593,6 +593,18 @@
   <si>
     <t>shivangmedhekar/CS555WS_Fall2022_Team7</t>
   </si>
+  <si>
+    <t xml:space="preserve">Completed all user stories and </t>
+  </si>
+  <si>
+    <t>Adding user stories to user_stories.py file and run.py file</t>
+  </si>
+  <si>
+    <t>making unnecessary changes to other files</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -763,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,6 +942,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,6 +1226,9 @@
                 <c:pt idx="0">
                   <c:v>44830</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>44837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1213,6 +1240,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2342,7 +2372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2406,8 +2438,8 @@
       <c r="E3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>179</v>
+      <c r="F3" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2423,8 +2455,8 @@
       <c r="E4" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>179</v>
+      <c r="F4" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2440,8 +2472,8 @@
       <c r="E5" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>179</v>
+      <c r="F5" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,8 +2489,8 @@
       <c r="E6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>179</v>
+      <c r="F6" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2474,8 +2506,8 @@
       <c r="E7" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>179</v>
+      <c r="F7" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,8 +2523,8 @@
       <c r="E8" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>179</v>
+      <c r="F8" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2508,8 +2540,8 @@
       <c r="E9" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>179</v>
+      <c r="F9" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,6 +2554,12 @@
       <c r="D10" s="27" t="s">
         <v>59</v>
       </c>
+      <c r="E10" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
@@ -2533,6 +2571,12 @@
       <c r="D11" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="E11" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
@@ -2544,6 +2588,12 @@
       <c r="D12" s="27" t="s">
         <v>65</v>
       </c>
+      <c r="E12" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
@@ -2555,6 +2605,12 @@
       <c r="D13" s="27" t="s">
         <v>68</v>
       </c>
+      <c r="E13" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
@@ -2566,6 +2622,12 @@
       <c r="D14" s="27" t="s">
         <v>71</v>
       </c>
+      <c r="E14" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
@@ -2576,6 +2638,12 @@
       </c>
       <c r="D15" s="27" t="s">
         <v>74</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2720,7 +2788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6890,7 +6960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AB1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6959,7 +7031,9 @@
         <f>COUNT(Backlog!B3:B27)</f>
         <v>25</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
       <c r="F3" s="33"/>
       <c r="G3" s="30"/>
       <c r="H3" s="35"/>
@@ -6968,12 +7042,28 @@
       <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="37">
+        <v>44837</v>
+      </c>
+      <c r="D4" s="29">
+        <f>D3-7</f>
+        <v>18</v>
+      </c>
+      <c r="E4" s="29">
+        <v>7</v>
+      </c>
+      <c r="F4" s="33">
+        <f>SUM(Sprint1!H3:H9)</f>
+        <v>57</v>
+      </c>
+      <c r="G4" s="29">
+        <f>SUM(Sprint1!I3:I9)</f>
+        <v>315</v>
+      </c>
+      <c r="H4" s="35">
+        <f>F4/(G4/60)</f>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="5" spans="2:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
@@ -10996,7 +11086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11061,7 +11153,15 @@
       <c r="G3" s="15">
         <v>60</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="H3" s="15">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15">
+        <v>45</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="48" t="s">
@@ -11082,7 +11182,15 @@
       <c r="G4" s="15">
         <v>60</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="H4" s="15">
+        <v>6</v>
+      </c>
+      <c r="I4" s="15">
+        <v>10</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="55" t="s">
@@ -11103,7 +11211,15 @@
       <c r="G5" s="15">
         <v>60</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
+        <v>20</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="55" t="s">
@@ -11124,7 +11240,15 @@
       <c r="G6" s="15">
         <v>60</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="H6" s="67">
+        <v>7</v>
+      </c>
+      <c r="I6" s="67">
+        <v>60</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="55" t="s">
@@ -11145,7 +11269,15 @@
       <c r="G7" s="15">
         <v>60</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="H7" s="67">
+        <v>7</v>
+      </c>
+      <c r="I7" s="67">
+        <v>60</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="55" t="s">
@@ -11166,7 +11298,15 @@
       <c r="G8" s="15">
         <v>120</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="H8" s="67">
+        <v>10</v>
+      </c>
+      <c r="I8" s="67">
+        <v>60</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="53" t="s">
@@ -11187,7 +11327,15 @@
       <c r="G9" s="15">
         <v>120</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="H9" s="67">
+        <v>10</v>
+      </c>
+      <c r="I9" s="67">
+        <v>60</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="17"/>
@@ -11200,7 +11348,15 @@
       <c r="C11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="D11" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="57"/>
@@ -11210,7 +11366,15 @@
       <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="D13" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="58"/>
@@ -11228,7 +11392,15 @@
       <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="D17" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="58"/>
@@ -15151,6 +15323,11 @@
       <c r="J997" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D17:J17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -15158,1043 +15335,294 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="15"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J2" s="56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="15">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15">
+        <v>60</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="15">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15">
+        <v>60</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="15">
+        <v>30</v>
+      </c>
+      <c r="G5" s="15">
+        <v>60</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="15">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15">
+        <v>60</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="15">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15">
+        <v>60</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="17">
+        <v>50</v>
+      </c>
+      <c r="G8" s="15">
+        <v>120</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="17"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="15"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="15"/>
+      <c r="C12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="15"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="15"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="15"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="15"/>
+      <c r="C16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="39"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A94A1D-F28E-0948-A87B-21CBCE9E1458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BCBA6-884F-E043-B32C-FCBAA006D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -594,9 +594,6 @@
     <t>shivangmedhekar/CS555WS_Fall2022_Team7</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed all user stories and </t>
-  </si>
-  <si>
     <t>Adding user stories to user_stories.py file and run.py file</t>
   </si>
   <si>
@@ -604,6 +601,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Completed all user stories and test Code</t>
+  </si>
+  <si>
+    <t>Adding user stories in different files</t>
+  </si>
+  <si>
+    <t>Seprated User stories and their test code in different files, refactored code</t>
+  </si>
+  <si>
+    <t>Making major changes in code structure</t>
   </si>
 </sst>
 </file>
@@ -775,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,11 +957,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11086,8 +11110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11145,7 +11169,7 @@
         <v>165</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="F3" s="15">
         <v>50</v>
@@ -11160,7 +11184,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11173,8 +11197,8 @@
       <c r="D4" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>179</v>
+      <c r="E4" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="15">
         <v>100</v>
@@ -11189,7 +11213,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11202,8 +11226,8 @@
       <c r="D5" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>179</v>
+      <c r="E5" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="15">
         <v>50</v>
@@ -11218,7 +11242,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11231,8 +11255,8 @@
       <c r="D6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>179</v>
+      <c r="E6" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="15">
         <v>70</v>
@@ -11247,7 +11271,7 @@
         <v>60</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11260,8 +11284,8 @@
       <c r="D7" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>179</v>
+      <c r="E7" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="15">
         <v>75</v>
@@ -11276,7 +11300,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11289,8 +11313,8 @@
       <c r="D8" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>179</v>
+      <c r="E8" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="17">
         <v>100</v>
@@ -11305,7 +11329,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11318,8 +11342,8 @@
       <c r="D9" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>179</v>
+      <c r="E9" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="15">
         <v>100</v>
@@ -11334,7 +11358,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11348,15 +11372,15 @@
       <c r="C11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
+      <c r="D11" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="57"/>
@@ -11366,15 +11390,15 @@
       <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="D13" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="58"/>
@@ -11392,15 +11416,15 @@
       <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+      <c r="D17" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="58"/>
@@ -15338,7 +15362,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15471,7 +15495,7 @@
         <v>165</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="F6" s="15">
         <v>30</v>
@@ -15479,9 +15503,15 @@
       <c r="G6" s="15">
         <v>60</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="15">
+        <v>37</v>
+      </c>
+      <c r="I6" s="15">
+        <v>60</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26" t="s">
@@ -15517,7 +15547,7 @@
         <v>165</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="F8" s="17">
         <v>50</v>
@@ -15525,9 +15555,15 @@
       <c r="G8" s="15">
         <v>120</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="15">
+        <v>22</v>
+      </c>
+      <c r="I8" s="15">
+        <v>60</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="17"/>
@@ -15545,13 +15581,15 @@
       <c r="C10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="39"/>
+      <c r="D10" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
@@ -15569,13 +15607,15 @@
       <c r="C12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="39"/>
+      <c r="D12" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
@@ -15615,15 +15655,22 @@
       <c r="C16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="39"/>
+      <c r="D16" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D16:J16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -15631,1043 +15678,215 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J2" s="56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="57"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="58"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="58"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="58"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="39"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BCBA6-884F-E043-B32C-FCBAA006D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2FF89-B055-034F-AE5D-659B1EC4983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -623,7 +623,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -750,6 +750,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -784,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -976,6 +982,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1253,6 +1269,9 @@
                 <c:pt idx="1">
                   <c:v>44837</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44851</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1267,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2406,7 +2428,7 @@
     <col min="2" max="2" width="7.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="71" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
     <col min="7" max="27" width="10.6640625" customWidth="1"/>
   </cols>
@@ -2581,8 +2603,8 @@
       <c r="E10" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>179</v>
+      <c r="F10" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2598,8 +2620,8 @@
       <c r="E11" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>179</v>
+      <c r="F11" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2615,8 +2637,8 @@
       <c r="E12" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>179</v>
+      <c r="F12" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2632,8 +2654,8 @@
       <c r="E13" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>179</v>
+      <c r="F13" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2649,8 +2671,8 @@
       <c r="E14" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>179</v>
+      <c r="F14" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,8 +2688,8 @@
       <c r="E15" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>179</v>
+      <c r="F15" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2680,8 +2702,11 @@
       <c r="D16" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <v>3</v>
       </c>
@@ -2691,8 +2716,11 @@
       <c r="D17" s="27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>3</v>
       </c>
@@ -2702,8 +2730,11 @@
       <c r="D18" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>3</v>
       </c>
@@ -2713,8 +2744,11 @@
       <c r="D19" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -2724,8 +2758,11 @@
       <c r="D20" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>3</v>
       </c>
@@ -2735,8 +2772,11 @@
       <c r="D21" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>4</v>
       </c>
@@ -2747,7 +2787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -2758,7 +2798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2769,7 +2809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <v>4</v>
       </c>
@@ -2780,7 +2820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <v>4</v>
       </c>
@@ -2791,7 +2831,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>4</v>
       </c>
@@ -2813,7 +2853,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6985,7 +7025,7 @@
   <dimension ref="B2:AB1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7074,6 +7114,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="29">
+        <f>D3-D4</f>
         <v>7</v>
       </c>
       <c r="F4" s="33">
@@ -7093,12 +7134,29 @@
       <c r="B5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="35"/>
+      <c r="C5" s="37">
+        <v>44851</v>
+      </c>
+      <c r="D5" s="30">
+        <f>D4-6</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="29">
+        <f>D4-D5</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="32">
+        <f>SUM(Sprint2!H3:H8)</f>
+        <v>201</v>
+      </c>
+      <c r="G5" s="30">
+        <f>SUM(Sprint2!I3:I8)</f>
+        <v>600</v>
+      </c>
+      <c r="H5" s="35">
+        <f>F5/(G5/60)</f>
+        <v>20.100000000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
@@ -11111,7 +11169,7 @@
   <dimension ref="B2:J997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:J17"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11372,15 +11430,15 @@
       <c r="C11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="57"/>
@@ -11390,15 +11448,15 @@
       <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="58"/>
@@ -11416,15 +11474,15 @@
       <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="58"/>
@@ -15359,10 +15417,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15375,7 +15433,7 @@
     <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="15"/>
       <c r="C1" s="46"/>
       <c r="D1" s="15"/>
@@ -15386,7 +15444,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
@@ -15415,7 +15473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
@@ -15425,8 +15483,8 @@
       <c r="D3" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>179</v>
+      <c r="E3" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="15">
         <v>20</v>
@@ -15434,11 +15492,19 @@
       <c r="G3" s="15">
         <v>60</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="15">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15">
+        <f>60*2</f>
+        <v>120</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="26" t="s">
         <v>61</v>
       </c>
@@ -15448,8 +15514,8 @@
       <c r="D4" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>179</v>
+      <c r="E4" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="15">
         <v>20</v>
@@ -15457,11 +15523,17 @@
       <c r="G4" s="15">
         <v>60</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="15">
+        <v>39</v>
+      </c>
+      <c r="I4" s="71">
+        <v>120</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>64</v>
       </c>
@@ -15471,8 +15543,8 @@
       <c r="D5" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>179</v>
+      <c r="E5" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="15">
         <v>30</v>
@@ -15480,11 +15552,17 @@
       <c r="G5" s="15">
         <v>60</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="15">
+        <v>32</v>
+      </c>
+      <c r="I5" s="71">
+        <v>120</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="26" t="s">
         <v>67</v>
       </c>
@@ -15494,7 +15572,7 @@
       <c r="D6" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="70" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="15">
@@ -15513,7 +15591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26" t="s">
         <v>70</v>
       </c>
@@ -15523,8 +15601,8 @@
       <c r="D7" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>179</v>
+      <c r="E7" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="15">
         <v>20</v>
@@ -15532,11 +15610,17 @@
       <c r="G7" s="15">
         <v>60</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="15">
+        <v>36</v>
+      </c>
+      <c r="I7" s="15">
+        <v>120</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26" t="s">
         <v>73</v>
       </c>
@@ -15546,7 +15630,7 @@
       <c r="D8" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="70" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="17">
@@ -15565,7 +15649,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="17"/>
       <c r="C9" s="58"/>
       <c r="D9" s="17"/>
@@ -15576,22 +15660,22 @@
       <c r="I9" s="15"/>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+    </row>
+    <row r="11" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
       <c r="C11" s="57"/>
       <c r="D11" s="15"/>
@@ -15602,22 +15686,22 @@
       <c r="I11" s="15"/>
       <c r="J11" s="39"/>
     </row>
-    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
       <c r="C13" s="58"/>
       <c r="D13" s="15"/>
@@ -15628,7 +15712,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="39"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="58"/>
       <c r="D14" s="15"/>
@@ -15639,7 +15723,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="58"/>
       <c r="D15" s="15"/>
@@ -15650,20 +15734,20 @@
       <c r="I15" s="15"/>
       <c r="J15" s="39"/>
     </row>
-    <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15680,8 +15764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15743,7 +15827,18 @@
       <c r="C3" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="74" t="s">
@@ -15752,7 +15847,7 @@
       <c r="C4" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="28" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="28" t="s">
@@ -15772,7 +15867,18 @@
       <c r="C5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>240</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="74" t="s">
@@ -15781,7 +15887,18 @@
       <c r="C6" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="74" t="s">
@@ -15790,7 +15907,7 @@
       <c r="C7" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="28" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -15809,6 +15926,18 @@
       </c>
       <c r="C8" s="52" t="s">
         <v>140</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">

--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8F2CB-9A89-484F-8C61-4C9183635CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DEEAC-33A1-D746-A59A-E4AE65AEAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="13180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="196">
   <si>
     <t>Initials</t>
   </si>
@@ -814,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,6 +1011,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2290,9 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2445,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2834,6 +2835,9 @@
       <c r="E22" s="20" t="s">
         <v>165</v>
       </c>
+      <c r="F22" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
@@ -2848,6 +2852,9 @@
       <c r="E23" s="20" t="s">
         <v>174</v>
       </c>
+      <c r="F23" s="78" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
@@ -2862,6 +2869,9 @@
       <c r="E24" s="20" t="s">
         <v>174</v>
       </c>
+      <c r="F24" s="78" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
@@ -2876,6 +2886,9 @@
       <c r="E25" s="20" t="s">
         <v>169</v>
       </c>
+      <c r="F25" s="78" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
@@ -2890,6 +2903,9 @@
       <c r="E26" s="20" t="s">
         <v>169</v>
       </c>
+      <c r="F26" s="78" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
@@ -2903,6 +2919,9 @@
       </c>
       <c r="E27" s="20" t="s">
         <v>165</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -11499,15 +11518,15 @@
       <c r="C11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="57"/>
@@ -11517,15 +11536,15 @@
       <c r="C13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="58"/>
@@ -11543,15 +11562,15 @@
       <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="3:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="58"/>
@@ -15734,15 +15753,15 @@
       <c r="C10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
@@ -15760,15 +15779,15 @@
       <c r="C12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
@@ -15808,15 +15827,15 @@
       <c r="C16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16159,7 +16178,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17325,8 +17344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:AA1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Team07Report.xlsx
+++ b/Team07Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivangmedhekar/Documents/GitHub/CS555WS_Spring2022_Team7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DEEAC-33A1-D746-A59A-E4AE65AEAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9742A91-FA4E-614F-8235-3F6F622ED5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="13180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2895,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>169</v>
@@ -16178,7 +16178,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17344,8 +17344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
